--- a/output/manual_range_edge_binning.xlsx
+++ b/output/manual_range_edge_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc.sharepoint.com/sites/fs-cio-mpsg/SCC Library/03_Nebraska NFG/Species Evaluations/R_NNFG_SO/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="11_70DE90B082F123B351BBEF595328C939760EC9C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E57D52C0-ECAA-4B4E-924B-CB769DB5A4DA}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="11_70DE90B082F123B351BBEF595328C939760EC9C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A73B2426-A342-46F4-B54F-2DA75F7433F0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23040" yWindow="1296" windowWidth="24468" windowHeight="12936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28920" yWindow="435" windowWidth="27525" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bins" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="887">
   <si>
     <t>taxon_id</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Corvidae</t>
   </si>
   <si>
-    <t>year round only occurs in portions of Fall River, Oglala, Pine Ridge</t>
-  </si>
-  <si>
     <t>2498345</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>Anatidae</t>
   </si>
   <si>
-    <t>additional specialist review for disjunct determination; Range map of breeding habitat does not occur in Fort Pierre or Wall. Just a small portion of breeding goes into Fall River</t>
-  </si>
-  <si>
     <t>9813242</t>
   </si>
   <si>
@@ -2690,6 +2684,82 @@
   </si>
   <si>
     <t>Yes, disjunct non-breeding population</t>
+  </si>
+  <si>
+    <t>end of non-breeding was measured from edge of plan area to closest edge of non-breeding but that edge then becomes breeding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">year round </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>only occurs in portions of Fall River, Oglala, Pine Ridge; wrote 0 miles as year round transects the plan area so did it for both breeding and nonbreeding edge</t>
+    </r>
+  </si>
+  <si>
+    <t>additional specialist review for disjunct determination; Range map of breeding habitat does not occur in Fort Pierre Fall river or Wall. Non breeding only occurs in Bessey and Samuel McKelvie. Both type of seasons could be considered disjunt</t>
+  </si>
+  <si>
+    <t>no breeding range in Bessey</t>
+  </si>
+  <si>
+    <t>in Migration range. Assume a specialsit found an observation during breeding ???</t>
+  </si>
+  <si>
+    <t>outside of all range assume someone has a record during breeding season ????</t>
+  </si>
+  <si>
+    <t>unknnown for non breeding for this species and above means there is no nonbreeding range in the plan area; size of range was 3/4 of the continetal US so when moderate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Units in breeding except for Bessey, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non breeding is disjunt, and only occurs in Samuel McKelvie, have specialist review if they believe non breeding is considered disjunt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">no non breeding range in paln area; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>breeding is disjunct, Breeding only crosses small portion of Fall river and Ogala; occurs in more than two - four states but less than 1/2 of continental US</t>
+    </r>
+  </si>
+  <si>
+    <t>Breeding range occurs in Fall river and Ogala</t>
+  </si>
+  <si>
+    <t>no non-breeding range in plan area</t>
   </si>
 </sst>
 </file>
@@ -2788,6 +2858,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3107,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,6 +3898,9 @@
       <c r="L17" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="M17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>38</v>
       </c>
@@ -3868,6 +3945,9 @@
       <c r="L18" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="M18" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="N18" s="1" t="s">
         <v>38</v>
       </c>
@@ -3944,11 +4024,17 @@
       <c r="L20" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="M20" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="N20" s="1" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -4061,6 +4147,9 @@
       <c r="L23" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="M23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>38</v>
       </c>
@@ -4068,18 +4157,18 @@
         <v>40</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>132</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -4094,10 +4183,10 @@
         <v>34</v>
       </c>
       <c r="I24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" t="s">
         <v>135</v>
-      </c>
-      <c r="J24" t="s">
-        <v>136</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>29</v>
@@ -4105,6 +4194,9 @@
       <c r="L24" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N24" s="1" t="s">
         <v>38</v>
       </c>
@@ -4112,18 +4204,18 @@
         <v>29</v>
       </c>
       <c r="P24" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
         <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -4138,24 +4230,36 @@
         <v>34</v>
       </c>
       <c r="I25" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>141</v>
       </c>
-      <c r="J25" t="s">
+      <c r="B26" t="s">
         <v>142</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
         <v>143</v>
-      </c>
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -4170,24 +4274,39 @@
         <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
         <v>146</v>
-      </c>
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" t="s">
-        <v>148</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -4202,24 +4321,27 @@
         <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
         <v>149</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" t="s">
-        <v>151</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -4237,21 +4359,24 @@
         <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
         <v>153</v>
-      </c>
-      <c r="B29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" t="s">
-        <v>155</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -4269,7 +4394,7 @@
         <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>29</v>
@@ -4277,13 +4402,13 @@
     </row>
     <row r="30" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
         <v>157</v>
-      </c>
-      <c r="B30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" t="s">
-        <v>159</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -4306,16 +4431,31 @@
       <c r="K30" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
         <v>160</v>
-      </c>
-      <c r="B31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" t="s">
-        <v>162</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -4330,24 +4470,39 @@
         <v>34</v>
       </c>
       <c r="I31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" t="s">
         <v>135</v>
       </c>
-      <c r="J31" t="s">
-        <v>136</v>
-      </c>
       <c r="K31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
         <v>163</v>
-      </c>
-      <c r="B32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -4362,24 +4517,39 @@
         <v>34</v>
       </c>
       <c r="I32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>166</v>
       </c>
-      <c r="J32" t="s">
+      <c r="B33" t="s">
         <v>167</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
         <v>168</v>
-      </c>
-      <c r="B33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" t="s">
-        <v>170</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -4397,21 +4567,36 @@
         <v>50</v>
       </c>
       <c r="J33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
         <v>171</v>
-      </c>
-      <c r="B34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" t="s">
-        <v>173</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -4434,16 +4619,28 @@
       <c r="K34" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="M34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
         <v>174</v>
-      </c>
-      <c r="B35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -4461,7 +4658,7 @@
         <v>50</v>
       </c>
       <c r="J35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>29</v>
@@ -4469,13 +4666,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
         <v>178</v>
-      </c>
-      <c r="B36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" t="s">
-        <v>180</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -4493,7 +4690,7 @@
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>29</v>
@@ -4501,13 +4698,13 @@
     </row>
     <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
         <v>182</v>
-      </c>
-      <c r="B37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" t="s">
-        <v>184</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -4540,18 +4737,18 @@
         <v>40</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
         <v>186</v>
-      </c>
-      <c r="B38" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" t="s">
-        <v>188</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -4569,7 +4766,7 @@
         <v>50</v>
       </c>
       <c r="J38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>29</v>
@@ -4577,13 +4774,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
         <v>190</v>
-      </c>
-      <c r="B39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" t="s">
-        <v>192</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -4609,13 +4806,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" t="s">
         <v>193</v>
-      </c>
-      <c r="B40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" t="s">
-        <v>195</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
@@ -4630,10 +4827,10 @@
         <v>34</v>
       </c>
       <c r="I40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J40" t="s">
         <v>135</v>
-      </c>
-      <c r="J40" t="s">
-        <v>136</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>29</v>
@@ -4641,13 +4838,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" t="s">
         <v>196</v>
-      </c>
-      <c r="B41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" t="s">
-        <v>198</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
@@ -4673,13 +4870,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
         <v>199</v>
-      </c>
-      <c r="B42" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" t="s">
-        <v>201</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
@@ -4705,13 +4902,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" t="s">
         <v>202</v>
-      </c>
-      <c r="B43" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" t="s">
-        <v>204</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
@@ -4737,13 +4934,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
         <v>205</v>
-      </c>
-      <c r="B44" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" t="s">
-        <v>207</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -4761,7 +4958,7 @@
         <v>50</v>
       </c>
       <c r="J44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>29</v>
@@ -4769,13 +4966,13 @@
     </row>
     <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s">
         <v>209</v>
-      </c>
-      <c r="B45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C45" t="s">
-        <v>211</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -4787,13 +4984,13 @@
         <v>21</v>
       </c>
       <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" t="s">
+        <v>211</v>
+      </c>
+      <c r="J45" t="s">
         <v>212</v>
-      </c>
-      <c r="I45" t="s">
-        <v>213</v>
-      </c>
-      <c r="J45" t="s">
-        <v>214</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>29</v>
@@ -4803,13 +5000,13 @@
     </row>
     <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" t="s">
         <v>215</v>
-      </c>
-      <c r="B46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" t="s">
-        <v>217</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
@@ -4821,13 +5018,13 @@
         <v>21</v>
       </c>
       <c r="H46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>29</v>
@@ -4837,13 +5034,13 @@
     </row>
     <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" t="s">
         <v>220</v>
-      </c>
-      <c r="B47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" t="s">
-        <v>222</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -4855,13 +5052,13 @@
         <v>21</v>
       </c>
       <c r="H47" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" t="s">
         <v>212</v>
-      </c>
-      <c r="I47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J47" t="s">
-        <v>214</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>29</v>
@@ -4871,13 +5068,13 @@
     </row>
     <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" t="s">
         <v>223</v>
-      </c>
-      <c r="B48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" t="s">
-        <v>225</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -4889,13 +5086,13 @@
         <v>21</v>
       </c>
       <c r="H48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" t="s">
+        <v>211</v>
+      </c>
+      <c r="J48" t="s">
         <v>212</v>
-      </c>
-      <c r="I48" t="s">
-        <v>213</v>
-      </c>
-      <c r="J48" t="s">
-        <v>214</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>29</v>
@@ -4905,13 +5102,13 @@
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" t="s">
         <v>226</v>
-      </c>
-      <c r="B49" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" t="s">
-        <v>228</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -4923,13 +5120,13 @@
         <v>21</v>
       </c>
       <c r="H49" t="s">
+        <v>210</v>
+      </c>
+      <c r="I49" t="s">
+        <v>211</v>
+      </c>
+      <c r="J49" t="s">
         <v>212</v>
-      </c>
-      <c r="I49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J49" t="s">
-        <v>214</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>29</v>
@@ -4939,13 +5136,13 @@
     </row>
     <row r="50" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" t="s">
         <v>229</v>
-      </c>
-      <c r="B50" t="s">
-        <v>230</v>
-      </c>
-      <c r="C50" t="s">
-        <v>231</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -4957,13 +5154,13 @@
         <v>21</v>
       </c>
       <c r="H50" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>25</v>
@@ -4973,13 +5170,13 @@
     </row>
     <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" t="s">
         <v>234</v>
-      </c>
-      <c r="B51" t="s">
-        <v>235</v>
-      </c>
-      <c r="C51" t="s">
-        <v>236</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -4991,13 +5188,13 @@
         <v>21</v>
       </c>
       <c r="H51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" t="s">
+        <v>211</v>
+      </c>
+      <c r="J51" t="s">
         <v>212</v>
-      </c>
-      <c r="I51" t="s">
-        <v>213</v>
-      </c>
-      <c r="J51" t="s">
-        <v>214</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>29</v>
@@ -5007,13 +5204,13 @@
     </row>
     <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s">
         <v>237</v>
-      </c>
-      <c r="B52" t="s">
-        <v>238</v>
-      </c>
-      <c r="C52" t="s">
-        <v>239</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -5022,13 +5219,13 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>210</v>
+      </c>
+      <c r="I52" t="s">
+        <v>211</v>
+      </c>
+      <c r="J52" t="s">
         <v>212</v>
-      </c>
-      <c r="I52" t="s">
-        <v>213</v>
-      </c>
-      <c r="J52" t="s">
-        <v>214</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>29</v>
@@ -5038,13 +5235,13 @@
     </row>
     <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" t="s">
         <v>240</v>
-      </c>
-      <c r="B53" t="s">
-        <v>241</v>
-      </c>
-      <c r="C53" t="s">
-        <v>242</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -5056,13 +5253,13 @@
         <v>21</v>
       </c>
       <c r="H53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I53" t="s">
+        <v>211</v>
+      </c>
+      <c r="J53" t="s">
         <v>212</v>
-      </c>
-      <c r="I53" t="s">
-        <v>213</v>
-      </c>
-      <c r="J53" t="s">
-        <v>214</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>29</v>
@@ -5072,13 +5269,13 @@
     </row>
     <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" t="s">
         <v>243</v>
-      </c>
-      <c r="B54" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" t="s">
-        <v>245</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -5090,13 +5287,13 @@
         <v>21</v>
       </c>
       <c r="H54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>29</v>
@@ -5106,13 +5303,13 @@
     </row>
     <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" t="s">
         <v>246</v>
-      </c>
-      <c r="B55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C55" t="s">
-        <v>248</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -5124,13 +5321,13 @@
         <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>29</v>
@@ -5140,13 +5337,13 @@
     </row>
     <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" t="s">
         <v>251</v>
-      </c>
-      <c r="B56" t="s">
-        <v>252</v>
-      </c>
-      <c r="C56" t="s">
-        <v>253</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -5158,13 +5355,13 @@
         <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>29</v>
@@ -5174,13 +5371,13 @@
     </row>
     <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" t="s">
         <v>255</v>
-      </c>
-      <c r="B57" t="s">
-        <v>256</v>
-      </c>
-      <c r="C57" t="s">
-        <v>257</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -5192,13 +5389,13 @@
         <v>21</v>
       </c>
       <c r="H57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>29</v>
@@ -5208,13 +5405,13 @@
     </row>
     <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" t="s">
         <v>258</v>
-      </c>
-      <c r="B58" t="s">
-        <v>259</v>
-      </c>
-      <c r="C58" t="s">
-        <v>260</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -5226,13 +5423,13 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>29</v>
@@ -5242,13 +5439,13 @@
     </row>
     <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" t="s">
         <v>262</v>
-      </c>
-      <c r="B59" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" t="s">
-        <v>264</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -5260,13 +5457,13 @@
         <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I59" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>29</v>
@@ -5276,13 +5473,13 @@
     </row>
     <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" t="s">
         <v>267</v>
-      </c>
-      <c r="B60" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" t="s">
-        <v>269</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -5294,13 +5491,13 @@
         <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J60" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>29</v>
@@ -5310,13 +5507,13 @@
     </row>
     <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" t="s">
         <v>271</v>
-      </c>
-      <c r="B61" t="s">
-        <v>272</v>
-      </c>
-      <c r="C61" t="s">
-        <v>273</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -5328,10 +5525,10 @@
         <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>29</v>
@@ -5341,13 +5538,13 @@
     </row>
     <row r="62" spans="1:16" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
         <v>276</v>
-      </c>
-      <c r="B62" t="s">
-        <v>277</v>
-      </c>
-      <c r="C62" t="s">
-        <v>278</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
@@ -5359,26 +5556,26 @@
         <v>21</v>
       </c>
       <c r="I62" t="s">
+        <v>277</v>
+      </c>
+      <c r="J62" t="s">
+        <v>278</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="J62" t="s">
-        <v>280</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="N62"/>
       <c r="P62"/>
     </row>
     <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" t="s">
         <v>282</v>
-      </c>
-      <c r="B63" t="s">
-        <v>283</v>
-      </c>
-      <c r="C63" t="s">
-        <v>284</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -5390,10 +5587,10 @@
         <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J63" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>29</v>
@@ -5403,13 +5600,13 @@
     </row>
     <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" t="s">
         <v>287</v>
-      </c>
-      <c r="B64" t="s">
-        <v>288</v>
-      </c>
-      <c r="C64" t="s">
-        <v>289</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
@@ -5418,10 +5615,10 @@
         <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>29</v>
@@ -5431,13 +5628,13 @@
     </row>
     <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>289</v>
+      </c>
+      <c r="B65" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" t="s">
         <v>291</v>
-      </c>
-      <c r="B65" t="s">
-        <v>292</v>
-      </c>
-      <c r="C65" t="s">
-        <v>293</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -5449,10 +5646,10 @@
         <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>29</v>
@@ -5462,13 +5659,13 @@
     </row>
     <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" t="s">
         <v>294</v>
-      </c>
-      <c r="B66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C66" t="s">
-        <v>296</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -5480,10 +5677,10 @@
         <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>29</v>
@@ -5493,13 +5690,13 @@
     </row>
     <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>295</v>
+      </c>
+      <c r="B67" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" t="s">
         <v>297</v>
-      </c>
-      <c r="B67" t="s">
-        <v>298</v>
-      </c>
-      <c r="C67" t="s">
-        <v>299</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -5511,10 +5708,10 @@
         <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>29</v>
@@ -5524,59 +5721,59 @@
     </row>
     <row r="68" spans="1:16" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" t="s">
         <v>300</v>
-      </c>
-      <c r="B68" t="s">
-        <v>301</v>
-      </c>
-      <c r="C68" t="s">
-        <v>302</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" t="s">
+        <v>301</v>
+      </c>
+      <c r="H68" t="s">
+        <v>302</v>
+      </c>
+      <c r="I68" t="s">
         <v>303</v>
       </c>
-      <c r="H68" t="s">
+      <c r="J68" t="s">
         <v>304</v>
       </c>
-      <c r="I68" t="s">
-        <v>305</v>
-      </c>
-      <c r="J68" t="s">
-        <v>306</v>
-      </c>
       <c r="K68" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N68"/>
       <c r="P68"/>
     </row>
     <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>305</v>
+      </c>
+      <c r="B69" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" t="s">
         <v>307</v>
-      </c>
-      <c r="B69" t="s">
-        <v>308</v>
-      </c>
-      <c r="C69" t="s">
-        <v>309</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
       <c r="G69" t="s">
+        <v>308</v>
+      </c>
+      <c r="H69" t="s">
+        <v>309</v>
+      </c>
+      <c r="I69" t="s">
         <v>310</v>
       </c>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>311</v>
-      </c>
-      <c r="I69" t="s">
-        <v>312</v>
-      </c>
-      <c r="J69" t="s">
-        <v>313</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>29</v>
@@ -5586,28 +5783,28 @@
     </row>
     <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" t="s">
         <v>314</v>
-      </c>
-      <c r="B70" t="s">
-        <v>315</v>
-      </c>
-      <c r="C70" t="s">
-        <v>316</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
       </c>
       <c r="G70" t="s">
+        <v>308</v>
+      </c>
+      <c r="H70" t="s">
+        <v>309</v>
+      </c>
+      <c r="I70" t="s">
         <v>310</v>
       </c>
-      <c r="H70" t="s">
+      <c r="J70" t="s">
         <v>311</v>
-      </c>
-      <c r="I70" t="s">
-        <v>312</v>
-      </c>
-      <c r="J70" t="s">
-        <v>313</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>29</v>
@@ -5617,121 +5814,121 @@
     </row>
     <row r="71" spans="1:16" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>315</v>
+      </c>
+      <c r="B71" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" t="s">
         <v>317</v>
-      </c>
-      <c r="B71" t="s">
-        <v>318</v>
-      </c>
-      <c r="C71" t="s">
-        <v>319</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="G71" t="s">
+        <v>308</v>
+      </c>
+      <c r="H71" t="s">
+        <v>309</v>
+      </c>
+      <c r="I71" t="s">
         <v>310</v>
       </c>
-      <c r="H71" t="s">
+      <c r="J71" t="s">
         <v>311</v>
       </c>
-      <c r="I71" t="s">
-        <v>312</v>
-      </c>
-      <c r="J71" t="s">
-        <v>313</v>
-      </c>
       <c r="K71" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N71"/>
       <c r="P71"/>
     </row>
     <row r="72" spans="1:16" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>318</v>
+      </c>
+      <c r="B72" t="s">
+        <v>319</v>
+      </c>
+      <c r="C72" t="s">
         <v>320</v>
-      </c>
-      <c r="B72" t="s">
-        <v>321</v>
-      </c>
-      <c r="C72" t="s">
-        <v>322</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="G72" t="s">
+        <v>308</v>
+      </c>
+      <c r="H72" t="s">
+        <v>309</v>
+      </c>
+      <c r="I72" t="s">
         <v>310</v>
       </c>
-      <c r="H72" t="s">
-        <v>311</v>
-      </c>
-      <c r="I72" t="s">
-        <v>312</v>
-      </c>
       <c r="J72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N72"/>
       <c r="P72"/>
     </row>
     <row r="73" spans="1:16" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" t="s">
         <v>324</v>
-      </c>
-      <c r="B73" t="s">
-        <v>325</v>
-      </c>
-      <c r="C73" t="s">
-        <v>326</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H73" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I73" t="s">
+        <v>325</v>
+      </c>
+      <c r="J73" t="s">
+        <v>326</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="J73" t="s">
-        <v>328</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="N73"/>
       <c r="P73"/>
     </row>
     <row r="74" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" t="s">
+        <v>329</v>
+      </c>
+      <c r="C74" t="s">
         <v>330</v>
-      </c>
-      <c r="B74" t="s">
-        <v>331</v>
-      </c>
-      <c r="C74" t="s">
-        <v>332</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H74" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>29</v>
@@ -5747,28 +5944,28 @@
     </row>
     <row r="75" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>331</v>
+      </c>
+      <c r="B75" t="s">
+        <v>332</v>
+      </c>
+      <c r="C75" t="s">
         <v>333</v>
-      </c>
-      <c r="B75" t="s">
-        <v>334</v>
-      </c>
-      <c r="C75" t="s">
-        <v>335</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H75" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I75" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J75" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>29</v>
@@ -5781,33 +5978,33 @@
         <v>40</v>
       </c>
       <c r="P75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>335</v>
+      </c>
+      <c r="B76" t="s">
+        <v>336</v>
+      </c>
+      <c r="C76" t="s">
         <v>337</v>
-      </c>
-      <c r="B76" t="s">
-        <v>338</v>
-      </c>
-      <c r="C76" t="s">
-        <v>339</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H76" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I76" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J76" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>29</v>
@@ -5817,28 +6014,28 @@
     </row>
     <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77" t="s">
         <v>340</v>
-      </c>
-      <c r="B77" t="s">
-        <v>341</v>
-      </c>
-      <c r="C77" t="s">
-        <v>342</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H77" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J77" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>29</v>
@@ -5848,28 +6045,28 @@
     </row>
     <row r="78" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" t="s">
+        <v>344</v>
+      </c>
+      <c r="C78" t="s">
         <v>345</v>
-      </c>
-      <c r="B78" t="s">
-        <v>346</v>
-      </c>
-      <c r="C78" t="s">
-        <v>347</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H78" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I78" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J78" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>25</v>
@@ -5879,59 +6076,59 @@
     </row>
     <row r="79" spans="1:16" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>347</v>
+      </c>
+      <c r="B79" t="s">
+        <v>348</v>
+      </c>
+      <c r="C79" t="s">
         <v>349</v>
-      </c>
-      <c r="B79" t="s">
-        <v>350</v>
-      </c>
-      <c r="C79" t="s">
-        <v>351</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H79" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J79" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N79"/>
       <c r="P79"/>
     </row>
     <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" t="s">
         <v>353</v>
-      </c>
-      <c r="B80" t="s">
-        <v>354</v>
-      </c>
-      <c r="C80" t="s">
-        <v>355</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H80" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I80" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J80" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>29</v>
@@ -5941,28 +6138,28 @@
     </row>
     <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>354</v>
+      </c>
+      <c r="B81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C81" t="s">
         <v>356</v>
-      </c>
-      <c r="B81" t="s">
-        <v>357</v>
-      </c>
-      <c r="C81" t="s">
-        <v>358</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H81" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I81" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>29</v>
@@ -5972,28 +6169,28 @@
     </row>
     <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" t="s">
+        <v>358</v>
+      </c>
+      <c r="C82" t="s">
         <v>359</v>
-      </c>
-      <c r="B82" t="s">
-        <v>360</v>
-      </c>
-      <c r="C82" t="s">
-        <v>361</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H82" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I82" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J82" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>29</v>
@@ -6003,28 +6200,28 @@
     </row>
     <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" t="s">
         <v>362</v>
-      </c>
-      <c r="B83" t="s">
-        <v>363</v>
-      </c>
-      <c r="C83" t="s">
-        <v>364</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I83" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J83" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>29</v>
@@ -6034,28 +6231,28 @@
     </row>
     <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" t="s">
+        <v>364</v>
+      </c>
+      <c r="C84" t="s">
         <v>365</v>
-      </c>
-      <c r="B84" t="s">
-        <v>366</v>
-      </c>
-      <c r="C84" t="s">
-        <v>367</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I84" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J84" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>29</v>
@@ -6065,28 +6262,28 @@
     </row>
     <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>366</v>
+      </c>
+      <c r="B85" t="s">
+        <v>367</v>
+      </c>
+      <c r="C85" t="s">
         <v>368</v>
-      </c>
-      <c r="B85" t="s">
-        <v>369</v>
-      </c>
-      <c r="C85" t="s">
-        <v>370</v>
       </c>
       <c r="F85" t="s">
         <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H85" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I85" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J85" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>29</v>
@@ -6096,28 +6293,28 @@
     </row>
     <row r="86" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>370</v>
+      </c>
+      <c r="B86" t="s">
+        <v>371</v>
+      </c>
+      <c r="C86" t="s">
         <v>372</v>
-      </c>
-      <c r="B86" t="s">
-        <v>373</v>
-      </c>
-      <c r="C86" t="s">
-        <v>374</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H86" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I86" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J86" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>25</v>
@@ -6127,28 +6324,28 @@
     </row>
     <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>374</v>
+      </c>
+      <c r="B87" t="s">
+        <v>375</v>
+      </c>
+      <c r="C87" t="s">
         <v>376</v>
-      </c>
-      <c r="B87" t="s">
-        <v>377</v>
-      </c>
-      <c r="C87" t="s">
-        <v>378</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H87" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I87" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J87" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>29</v>
@@ -6158,28 +6355,28 @@
     </row>
     <row r="88" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B88" t="s">
+        <v>379</v>
+      </c>
+      <c r="C88" t="s">
         <v>380</v>
-      </c>
-      <c r="B88" t="s">
-        <v>381</v>
-      </c>
-      <c r="C88" t="s">
-        <v>382</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H88" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I88" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J88" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>25</v>
@@ -6189,28 +6386,28 @@
     </row>
     <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>382</v>
+      </c>
+      <c r="B89" t="s">
+        <v>383</v>
+      </c>
+      <c r="C89" t="s">
         <v>384</v>
-      </c>
-      <c r="B89" t="s">
-        <v>385</v>
-      </c>
-      <c r="C89" t="s">
-        <v>386</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H89" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J89" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>29</v>
@@ -6220,28 +6417,28 @@
     </row>
     <row r="90" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>385</v>
+      </c>
+      <c r="B90" t="s">
+        <v>386</v>
+      </c>
+      <c r="C90" t="s">
         <v>387</v>
-      </c>
-      <c r="B90" t="s">
-        <v>388</v>
-      </c>
-      <c r="C90" t="s">
-        <v>389</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H90" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I90" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J90" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>25</v>
@@ -6251,28 +6448,28 @@
     </row>
     <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" t="s">
         <v>390</v>
-      </c>
-      <c r="B91" t="s">
-        <v>391</v>
-      </c>
-      <c r="C91" t="s">
-        <v>392</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H91" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J91" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>29</v>
@@ -6282,28 +6479,28 @@
     </row>
     <row r="92" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92" t="s">
+        <v>394</v>
+      </c>
+      <c r="C92" t="s">
         <v>395</v>
-      </c>
-      <c r="B92" t="s">
-        <v>396</v>
-      </c>
-      <c r="C92" t="s">
-        <v>397</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I92" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J92" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>25</v>
@@ -6313,31 +6510,31 @@
     </row>
     <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>398</v>
+      </c>
+      <c r="B93" t="s">
+        <v>399</v>
+      </c>
+      <c r="C93" t="s">
         <v>400</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>401</v>
       </c>
-      <c r="C93" t="s">
-        <v>402</v>
-      </c>
-      <c r="D93" t="s">
-        <v>403</v>
-      </c>
       <c r="F93" t="s">
+        <v>402</v>
+      </c>
+      <c r="G93" t="s">
+        <v>403</v>
+      </c>
+      <c r="H93" t="s">
         <v>404</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>405</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>406</v>
-      </c>
-      <c r="I93" t="s">
-        <v>407</v>
-      </c>
-      <c r="J93" t="s">
-        <v>408</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>29</v>
@@ -6347,31 +6544,31 @@
     </row>
     <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>407</v>
+      </c>
+      <c r="B94" t="s">
+        <v>408</v>
+      </c>
+      <c r="C94" t="s">
         <v>409</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
+        <v>401</v>
+      </c>
+      <c r="F94" t="s">
+        <v>402</v>
+      </c>
+      <c r="G94" t="s">
+        <v>403</v>
+      </c>
+      <c r="H94" t="s">
+        <v>404</v>
+      </c>
+      <c r="I94" t="s">
         <v>410</v>
       </c>
-      <c r="C94" t="s">
+      <c r="J94" t="s">
         <v>411</v>
-      </c>
-      <c r="D94" t="s">
-        <v>403</v>
-      </c>
-      <c r="F94" t="s">
-        <v>404</v>
-      </c>
-      <c r="G94" t="s">
-        <v>405</v>
-      </c>
-      <c r="H94" t="s">
-        <v>406</v>
-      </c>
-      <c r="I94" t="s">
-        <v>412</v>
-      </c>
-      <c r="J94" t="s">
-        <v>413</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>29</v>
@@ -6381,31 +6578,31 @@
     </row>
     <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>412</v>
+      </c>
+      <c r="B95" t="s">
+        <v>413</v>
+      </c>
+      <c r="C95" t="s">
         <v>414</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
+        <v>401</v>
+      </c>
+      <c r="F95" t="s">
+        <v>402</v>
+      </c>
+      <c r="G95" t="s">
+        <v>403</v>
+      </c>
+      <c r="H95" t="s">
+        <v>404</v>
+      </c>
+      <c r="I95" t="s">
         <v>415</v>
       </c>
-      <c r="C95" t="s">
+      <c r="J95" t="s">
         <v>416</v>
-      </c>
-      <c r="D95" t="s">
-        <v>403</v>
-      </c>
-      <c r="F95" t="s">
-        <v>404</v>
-      </c>
-      <c r="G95" t="s">
-        <v>405</v>
-      </c>
-      <c r="H95" t="s">
-        <v>406</v>
-      </c>
-      <c r="I95" t="s">
-        <v>417</v>
-      </c>
-      <c r="J95" t="s">
-        <v>418</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>29</v>
@@ -6415,31 +6612,31 @@
     </row>
     <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>417</v>
+      </c>
+      <c r="B96" t="s">
+        <v>418</v>
+      </c>
+      <c r="C96" t="s">
         <v>419</v>
       </c>
-      <c r="B96" t="s">
-        <v>420</v>
-      </c>
-      <c r="C96" t="s">
-        <v>421</v>
-      </c>
       <c r="D96" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F96" t="s">
+        <v>402</v>
+      </c>
+      <c r="G96" t="s">
+        <v>403</v>
+      </c>
+      <c r="H96" t="s">
         <v>404</v>
       </c>
-      <c r="G96" t="s">
-        <v>405</v>
-      </c>
-      <c r="H96" t="s">
-        <v>406</v>
-      </c>
       <c r="I96" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J96" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>29</v>
@@ -6449,31 +6646,31 @@
     </row>
     <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>420</v>
+      </c>
+      <c r="B97" t="s">
+        <v>421</v>
+      </c>
+      <c r="C97" t="s">
         <v>422</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
+        <v>401</v>
+      </c>
+      <c r="F97" t="s">
+        <v>402</v>
+      </c>
+      <c r="G97" t="s">
+        <v>403</v>
+      </c>
+      <c r="H97" t="s">
         <v>423</v>
       </c>
-      <c r="C97" t="s">
+      <c r="I97" t="s">
         <v>424</v>
       </c>
-      <c r="D97" t="s">
-        <v>403</v>
-      </c>
-      <c r="F97" t="s">
-        <v>404</v>
-      </c>
-      <c r="G97" t="s">
-        <v>405</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="J97" t="s">
         <v>425</v>
-      </c>
-      <c r="I97" t="s">
-        <v>426</v>
-      </c>
-      <c r="J97" t="s">
-        <v>427</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>29</v>
@@ -6483,31 +6680,31 @@
     </row>
     <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>426</v>
+      </c>
+      <c r="B98" t="s">
+        <v>427</v>
+      </c>
+      <c r="C98" t="s">
         <v>428</v>
       </c>
-      <c r="B98" t="s">
-        <v>429</v>
-      </c>
-      <c r="C98" t="s">
-        <v>430</v>
-      </c>
       <c r="D98" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F98" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G98" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H98" t="s">
+        <v>423</v>
+      </c>
+      <c r="I98" t="s">
+        <v>424</v>
+      </c>
+      <c r="J98" t="s">
         <v>425</v>
-      </c>
-      <c r="I98" t="s">
-        <v>426</v>
-      </c>
-      <c r="J98" t="s">
-        <v>427</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>29</v>
@@ -6517,31 +6714,31 @@
     </row>
     <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>429</v>
+      </c>
+      <c r="B99" t="s">
+        <v>430</v>
+      </c>
+      <c r="C99" t="s">
         <v>431</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
+        <v>401</v>
+      </c>
+      <c r="F99" t="s">
+        <v>402</v>
+      </c>
+      <c r="G99" t="s">
+        <v>403</v>
+      </c>
+      <c r="H99" t="s">
         <v>432</v>
       </c>
-      <c r="C99" t="s">
+      <c r="I99" t="s">
         <v>433</v>
       </c>
-      <c r="D99" t="s">
-        <v>403</v>
-      </c>
-      <c r="F99" t="s">
-        <v>404</v>
-      </c>
-      <c r="G99" t="s">
-        <v>405</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="J99" t="s">
         <v>434</v>
-      </c>
-      <c r="I99" t="s">
-        <v>435</v>
-      </c>
-      <c r="J99" t="s">
-        <v>436</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>29</v>
@@ -6551,28 +6748,28 @@
     </row>
     <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>435</v>
+      </c>
+      <c r="B100" t="s">
+        <v>436</v>
+      </c>
+      <c r="C100" t="s">
         <v>437</v>
       </c>
-      <c r="B100" t="s">
+      <c r="F100" t="s">
+        <v>402</v>
+      </c>
+      <c r="G100" t="s">
+        <v>403</v>
+      </c>
+      <c r="H100" t="s">
+        <v>432</v>
+      </c>
+      <c r="I100" t="s">
         <v>438</v>
       </c>
-      <c r="C100" t="s">
+      <c r="J100" t="s">
         <v>439</v>
-      </c>
-      <c r="F100" t="s">
-        <v>404</v>
-      </c>
-      <c r="G100" t="s">
-        <v>405</v>
-      </c>
-      <c r="H100" t="s">
-        <v>434</v>
-      </c>
-      <c r="I100" t="s">
-        <v>440</v>
-      </c>
-      <c r="J100" t="s">
-        <v>441</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>29</v>
@@ -6582,31 +6779,31 @@
     </row>
     <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>440</v>
+      </c>
+      <c r="B101" t="s">
+        <v>441</v>
+      </c>
+      <c r="C101" t="s">
         <v>442</v>
       </c>
-      <c r="B101" t="s">
-        <v>443</v>
-      </c>
-      <c r="C101" t="s">
-        <v>444</v>
-      </c>
       <c r="D101" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G101" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H101" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I101" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J101" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>29</v>
@@ -6616,28 +6813,28 @@
     </row>
     <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>443</v>
+      </c>
+      <c r="B102" t="s">
+        <v>444</v>
+      </c>
+      <c r="C102" t="s">
         <v>445</v>
       </c>
-      <c r="B102" t="s">
+      <c r="F102" t="s">
+        <v>402</v>
+      </c>
+      <c r="G102" t="s">
+        <v>403</v>
+      </c>
+      <c r="H102" t="s">
+        <v>432</v>
+      </c>
+      <c r="I102" t="s">
+        <v>438</v>
+      </c>
+      <c r="J102" t="s">
         <v>446</v>
-      </c>
-      <c r="C102" t="s">
-        <v>447</v>
-      </c>
-      <c r="F102" t="s">
-        <v>404</v>
-      </c>
-      <c r="G102" t="s">
-        <v>405</v>
-      </c>
-      <c r="H102" t="s">
-        <v>434</v>
-      </c>
-      <c r="I102" t="s">
-        <v>440</v>
-      </c>
-      <c r="J102" t="s">
-        <v>448</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>29</v>
@@ -6647,31 +6844,31 @@
     </row>
     <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>447</v>
+      </c>
+      <c r="B103" t="s">
+        <v>448</v>
+      </c>
+      <c r="C103" t="s">
         <v>449</v>
       </c>
-      <c r="B103" t="s">
-        <v>450</v>
-      </c>
-      <c r="C103" t="s">
-        <v>451</v>
-      </c>
       <c r="D103" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F103" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G103" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H103" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I103" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J103" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>29</v>
@@ -6681,31 +6878,31 @@
     </row>
     <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>450</v>
+      </c>
+      <c r="B104" t="s">
+        <v>451</v>
+      </c>
+      <c r="C104" t="s">
         <v>452</v>
       </c>
-      <c r="B104" t="s">
-        <v>453</v>
-      </c>
-      <c r="C104" t="s">
-        <v>454</v>
-      </c>
       <c r="D104" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F104" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G104" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H104" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I104" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J104" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>29</v>
@@ -6715,31 +6912,31 @@
     </row>
     <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>453</v>
+      </c>
+      <c r="B105" t="s">
+        <v>454</v>
+      </c>
+      <c r="C105" t="s">
         <v>455</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
+        <v>401</v>
+      </c>
+      <c r="F105" t="s">
+        <v>402</v>
+      </c>
+      <c r="G105" t="s">
+        <v>403</v>
+      </c>
+      <c r="H105" t="s">
+        <v>432</v>
+      </c>
+      <c r="I105" t="s">
+        <v>433</v>
+      </c>
+      <c r="J105" t="s">
         <v>456</v>
-      </c>
-      <c r="C105" t="s">
-        <v>457</v>
-      </c>
-      <c r="D105" t="s">
-        <v>403</v>
-      </c>
-      <c r="F105" t="s">
-        <v>404</v>
-      </c>
-      <c r="G105" t="s">
-        <v>405</v>
-      </c>
-      <c r="H105" t="s">
-        <v>434</v>
-      </c>
-      <c r="I105" t="s">
-        <v>435</v>
-      </c>
-      <c r="J105" t="s">
-        <v>458</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>29</v>
@@ -6749,31 +6946,31 @@
     </row>
     <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>457</v>
+      </c>
+      <c r="B106" t="s">
+        <v>458</v>
+      </c>
+      <c r="C106" t="s">
         <v>459</v>
       </c>
-      <c r="B106" t="s">
-        <v>460</v>
-      </c>
-      <c r="C106" t="s">
-        <v>461</v>
-      </c>
       <c r="D106" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F106" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G106" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H106" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I106" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J106" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>29</v>
@@ -6783,31 +6980,31 @@
     </row>
     <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>460</v>
+      </c>
+      <c r="B107" t="s">
+        <v>461</v>
+      </c>
+      <c r="C107" t="s">
         <v>462</v>
       </c>
-      <c r="B107" t="s">
-        <v>463</v>
-      </c>
-      <c r="C107" t="s">
-        <v>464</v>
-      </c>
       <c r="D107" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F107" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G107" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H107" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I107" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J107" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>29</v>
@@ -6817,62 +7014,62 @@
     </row>
     <row r="108" spans="1:16" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>463</v>
+      </c>
+      <c r="B108" t="s">
+        <v>464</v>
+      </c>
+      <c r="C108" t="s">
         <v>465</v>
       </c>
-      <c r="B108" t="s">
-        <v>466</v>
-      </c>
-      <c r="C108" t="s">
-        <v>467</v>
-      </c>
       <c r="F108" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G108" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H108" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I108" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J108" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N108"/>
       <c r="P108"/>
     </row>
     <row r="109" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>466</v>
+      </c>
+      <c r="B109" t="s">
+        <v>467</v>
+      </c>
+      <c r="C109" t="s">
         <v>468</v>
       </c>
-      <c r="B109" t="s">
-        <v>469</v>
-      </c>
-      <c r="C109" t="s">
-        <v>470</v>
-      </c>
       <c r="D109" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F109" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G109" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H109" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I109" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J109" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>25</v>
@@ -6882,31 +7079,31 @@
     </row>
     <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>469</v>
+      </c>
+      <c r="B110" t="s">
+        <v>470</v>
+      </c>
+      <c r="C110" t="s">
         <v>471</v>
       </c>
-      <c r="B110" t="s">
-        <v>472</v>
-      </c>
-      <c r="C110" t="s">
-        <v>473</v>
-      </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F110" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G110" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H110" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I110" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J110" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>29</v>
@@ -6916,31 +7113,31 @@
     </row>
     <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>472</v>
+      </c>
+      <c r="B111" t="s">
+        <v>473</v>
+      </c>
+      <c r="C111" t="s">
         <v>474</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
+        <v>401</v>
+      </c>
+      <c r="F111" t="s">
+        <v>402</v>
+      </c>
+      <c r="G111" t="s">
+        <v>403</v>
+      </c>
+      <c r="H111" t="s">
+        <v>432</v>
+      </c>
+      <c r="I111" t="s">
         <v>475</v>
       </c>
-      <c r="C111" t="s">
+      <c r="J111" t="s">
         <v>476</v>
-      </c>
-      <c r="D111" t="s">
-        <v>403</v>
-      </c>
-      <c r="F111" t="s">
-        <v>404</v>
-      </c>
-      <c r="G111" t="s">
-        <v>405</v>
-      </c>
-      <c r="H111" t="s">
-        <v>434</v>
-      </c>
-      <c r="I111" t="s">
-        <v>477</v>
-      </c>
-      <c r="J111" t="s">
-        <v>478</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>29</v>
@@ -6950,31 +7147,31 @@
     </row>
     <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>477</v>
+      </c>
+      <c r="B112" t="s">
+        <v>478</v>
+      </c>
+      <c r="C112" t="s">
         <v>479</v>
       </c>
-      <c r="B112" t="s">
-        <v>480</v>
-      </c>
-      <c r="C112" t="s">
-        <v>481</v>
-      </c>
       <c r="D112" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F112" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G112" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H112" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I112" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J112" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>29</v>
@@ -6984,28 +7181,28 @@
     </row>
     <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>480</v>
+      </c>
+      <c r="B113" t="s">
+        <v>481</v>
+      </c>
+      <c r="C113" t="s">
         <v>482</v>
-      </c>
-      <c r="B113" t="s">
-        <v>483</v>
-      </c>
-      <c r="C113" t="s">
-        <v>484</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H113" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I113" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J113" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>29</v>
@@ -7015,31 +7212,31 @@
     </row>
     <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>484</v>
+      </c>
+      <c r="B114" t="s">
+        <v>485</v>
+      </c>
+      <c r="C114" t="s">
         <v>486</v>
       </c>
-      <c r="B114" t="s">
-        <v>487</v>
-      </c>
-      <c r="C114" t="s">
-        <v>488</v>
-      </c>
       <c r="D114" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F114" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G114" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H114" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I114" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J114" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>29</v>
@@ -7049,31 +7246,31 @@
     </row>
     <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>487</v>
+      </c>
+      <c r="B115" t="s">
+        <v>488</v>
+      </c>
+      <c r="C115" t="s">
         <v>489</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
+        <v>401</v>
+      </c>
+      <c r="F115" t="s">
+        <v>402</v>
+      </c>
+      <c r="G115" t="s">
+        <v>403</v>
+      </c>
+      <c r="H115" t="s">
+        <v>432</v>
+      </c>
+      <c r="I115" t="s">
         <v>490</v>
       </c>
-      <c r="C115" t="s">
+      <c r="J115" t="s">
         <v>491</v>
-      </c>
-      <c r="D115" t="s">
-        <v>403</v>
-      </c>
-      <c r="F115" t="s">
-        <v>404</v>
-      </c>
-      <c r="G115" t="s">
-        <v>405</v>
-      </c>
-      <c r="H115" t="s">
-        <v>434</v>
-      </c>
-      <c r="I115" t="s">
-        <v>492</v>
-      </c>
-      <c r="J115" t="s">
-        <v>493</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>29</v>
@@ -7083,65 +7280,65 @@
     </row>
     <row r="116" spans="1:16" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>492</v>
+      </c>
+      <c r="B116" t="s">
+        <v>493</v>
+      </c>
+      <c r="C116" t="s">
         <v>494</v>
       </c>
-      <c r="B116" t="s">
-        <v>495</v>
-      </c>
-      <c r="C116" t="s">
-        <v>496</v>
-      </c>
       <c r="D116" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F116" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G116" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H116" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I116" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J116" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N116"/>
       <c r="P116"/>
     </row>
     <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>495</v>
+      </c>
+      <c r="B117" t="s">
+        <v>496</v>
+      </c>
+      <c r="C117" t="s">
         <v>497</v>
       </c>
-      <c r="B117" t="s">
-        <v>498</v>
-      </c>
-      <c r="C117" t="s">
-        <v>499</v>
-      </c>
       <c r="D117" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F117" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G117" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H117" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I117" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J117" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>29</v>
@@ -7151,31 +7348,31 @@
     </row>
     <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>498</v>
+      </c>
+      <c r="B118" t="s">
+        <v>499</v>
+      </c>
+      <c r="C118" t="s">
         <v>500</v>
       </c>
-      <c r="B118" t="s">
-        <v>501</v>
-      </c>
-      <c r="C118" t="s">
-        <v>502</v>
-      </c>
       <c r="D118" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F118" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G118" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H118" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I118" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J118" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>29</v>
@@ -7185,31 +7382,31 @@
     </row>
     <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>501</v>
+      </c>
+      <c r="B119" t="s">
+        <v>502</v>
+      </c>
+      <c r="C119" t="s">
         <v>503</v>
       </c>
-      <c r="B119" t="s">
-        <v>504</v>
-      </c>
-      <c r="C119" t="s">
-        <v>505</v>
-      </c>
       <c r="D119" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F119" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G119" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H119" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I119" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J119" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>29</v>
@@ -7219,31 +7416,31 @@
     </row>
     <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>504</v>
+      </c>
+      <c r="B120" t="s">
+        <v>505</v>
+      </c>
+      <c r="C120" t="s">
         <v>506</v>
       </c>
-      <c r="B120" t="s">
-        <v>507</v>
-      </c>
-      <c r="C120" t="s">
-        <v>508</v>
-      </c>
       <c r="D120" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F120" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G120" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H120" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I120" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J120" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>29</v>
@@ -7253,31 +7450,31 @@
     </row>
     <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>507</v>
+      </c>
+      <c r="B121" t="s">
+        <v>508</v>
+      </c>
+      <c r="C121" t="s">
         <v>509</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
+        <v>401</v>
+      </c>
+      <c r="F121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G121" t="s">
+        <v>403</v>
+      </c>
+      <c r="H121" t="s">
+        <v>432</v>
+      </c>
+      <c r="I121" t="s">
+        <v>438</v>
+      </c>
+      <c r="J121" t="s">
         <v>510</v>
-      </c>
-      <c r="C121" t="s">
-        <v>511</v>
-      </c>
-      <c r="D121" t="s">
-        <v>403</v>
-      </c>
-      <c r="F121" t="s">
-        <v>404</v>
-      </c>
-      <c r="G121" t="s">
-        <v>405</v>
-      </c>
-      <c r="H121" t="s">
-        <v>434</v>
-      </c>
-      <c r="I121" t="s">
-        <v>440</v>
-      </c>
-      <c r="J121" t="s">
-        <v>512</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>29</v>
@@ -7287,31 +7484,31 @@
     </row>
     <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>511</v>
+      </c>
+      <c r="B122" t="s">
+        <v>512</v>
+      </c>
+      <c r="C122" t="s">
         <v>513</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
+        <v>401</v>
+      </c>
+      <c r="F122" t="s">
+        <v>402</v>
+      </c>
+      <c r="G122" t="s">
+        <v>403</v>
+      </c>
+      <c r="H122" t="s">
+        <v>432</v>
+      </c>
+      <c r="I122" t="s">
+        <v>490</v>
+      </c>
+      <c r="J122" t="s">
         <v>514</v>
-      </c>
-      <c r="C122" t="s">
-        <v>515</v>
-      </c>
-      <c r="D122" t="s">
-        <v>403</v>
-      </c>
-      <c r="F122" t="s">
-        <v>404</v>
-      </c>
-      <c r="G122" t="s">
-        <v>405</v>
-      </c>
-      <c r="H122" t="s">
-        <v>434</v>
-      </c>
-      <c r="I122" t="s">
-        <v>492</v>
-      </c>
-      <c r="J122" t="s">
-        <v>516</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>29</v>
@@ -7321,31 +7518,31 @@
     </row>
     <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>515</v>
+      </c>
+      <c r="B123" t="s">
+        <v>516</v>
+      </c>
+      <c r="C123" t="s">
         <v>517</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
+        <v>401</v>
+      </c>
+      <c r="F123" t="s">
+        <v>402</v>
+      </c>
+      <c r="G123" t="s">
+        <v>403</v>
+      </c>
+      <c r="H123" t="s">
         <v>518</v>
       </c>
-      <c r="C123" t="s">
+      <c r="I123" t="s">
         <v>519</v>
       </c>
-      <c r="D123" t="s">
-        <v>403</v>
-      </c>
-      <c r="F123" t="s">
-        <v>404</v>
-      </c>
-      <c r="G123" t="s">
-        <v>405</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="J123" t="s">
         <v>520</v>
-      </c>
-      <c r="I123" t="s">
-        <v>521</v>
-      </c>
-      <c r="J123" t="s">
-        <v>522</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>29</v>
@@ -7355,31 +7552,31 @@
     </row>
     <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>521</v>
+      </c>
+      <c r="B124" t="s">
+        <v>522</v>
+      </c>
+      <c r="C124" t="s">
         <v>523</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
+        <v>401</v>
+      </c>
+      <c r="F124" t="s">
+        <v>402</v>
+      </c>
+      <c r="G124" t="s">
+        <v>403</v>
+      </c>
+      <c r="H124" t="s">
+        <v>518</v>
+      </c>
+      <c r="I124" t="s">
         <v>524</v>
       </c>
-      <c r="C124" t="s">
+      <c r="J124" t="s">
         <v>525</v>
-      </c>
-      <c r="D124" t="s">
-        <v>403</v>
-      </c>
-      <c r="F124" t="s">
-        <v>404</v>
-      </c>
-      <c r="G124" t="s">
-        <v>405</v>
-      </c>
-      <c r="H124" t="s">
-        <v>520</v>
-      </c>
-      <c r="I124" t="s">
-        <v>526</v>
-      </c>
-      <c r="J124" t="s">
-        <v>527</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>29</v>
@@ -7389,31 +7586,31 @@
     </row>
     <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>526</v>
+      </c>
+      <c r="B125" t="s">
+        <v>527</v>
+      </c>
+      <c r="C125" t="s">
         <v>528</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
+        <v>401</v>
+      </c>
+      <c r="F125" t="s">
+        <v>402</v>
+      </c>
+      <c r="G125" t="s">
+        <v>403</v>
+      </c>
+      <c r="H125" t="s">
+        <v>518</v>
+      </c>
+      <c r="I125" t="s">
         <v>529</v>
       </c>
-      <c r="C125" t="s">
+      <c r="J125" t="s">
         <v>530</v>
-      </c>
-      <c r="D125" t="s">
-        <v>403</v>
-      </c>
-      <c r="F125" t="s">
-        <v>404</v>
-      </c>
-      <c r="G125" t="s">
-        <v>405</v>
-      </c>
-      <c r="H125" t="s">
-        <v>520</v>
-      </c>
-      <c r="I125" t="s">
-        <v>531</v>
-      </c>
-      <c r="J125" t="s">
-        <v>532</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>29</v>
@@ -7423,31 +7620,31 @@
     </row>
     <row r="126" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>531</v>
+      </c>
+      <c r="B126" t="s">
+        <v>532</v>
+      </c>
+      <c r="C126" t="s">
         <v>533</v>
       </c>
-      <c r="B126" t="s">
-        <v>534</v>
-      </c>
-      <c r="C126" t="s">
-        <v>535</v>
-      </c>
       <c r="D126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F126" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H126" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I126" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J126" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>25</v>
@@ -7457,31 +7654,31 @@
     </row>
     <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>534</v>
+      </c>
+      <c r="B127" t="s">
+        <v>535</v>
+      </c>
+      <c r="C127" t="s">
         <v>536</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
+        <v>401</v>
+      </c>
+      <c r="F127" t="s">
+        <v>402</v>
+      </c>
+      <c r="G127" t="s">
+        <v>403</v>
+      </c>
+      <c r="H127" t="s">
+        <v>518</v>
+      </c>
+      <c r="I127" t="s">
         <v>537</v>
       </c>
-      <c r="C127" t="s">
+      <c r="J127" t="s">
         <v>538</v>
-      </c>
-      <c r="D127" t="s">
-        <v>403</v>
-      </c>
-      <c r="F127" t="s">
-        <v>404</v>
-      </c>
-      <c r="G127" t="s">
-        <v>405</v>
-      </c>
-      <c r="H127" t="s">
-        <v>520</v>
-      </c>
-      <c r="I127" t="s">
-        <v>539</v>
-      </c>
-      <c r="J127" t="s">
-        <v>540</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>29</v>
@@ -7491,31 +7688,31 @@
     </row>
     <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>539</v>
+      </c>
+      <c r="B128" t="s">
+        <v>540</v>
+      </c>
+      <c r="C128" t="s">
         <v>541</v>
       </c>
-      <c r="B128" t="s">
-        <v>542</v>
-      </c>
-      <c r="C128" t="s">
-        <v>543</v>
-      </c>
       <c r="D128" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F128" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G128" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H128" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I128" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J128" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>29</v>
@@ -7525,28 +7722,28 @@
     </row>
     <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>542</v>
+      </c>
+      <c r="B129" t="s">
+        <v>543</v>
+      </c>
+      <c r="C129" t="s">
         <v>544</v>
       </c>
-      <c r="B129" t="s">
-        <v>545</v>
-      </c>
-      <c r="C129" t="s">
-        <v>546</v>
-      </c>
       <c r="F129" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G129" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H129" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I129" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J129" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>29</v>
@@ -7556,31 +7753,31 @@
     </row>
     <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>545</v>
+      </c>
+      <c r="B130" t="s">
+        <v>546</v>
+      </c>
+      <c r="C130" t="s">
         <v>547</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D130" t="s">
+        <v>401</v>
+      </c>
+      <c r="F130" t="s">
+        <v>402</v>
+      </c>
+      <c r="G130" t="s">
+        <v>403</v>
+      </c>
+      <c r="H130" t="s">
+        <v>518</v>
+      </c>
+      <c r="I130" t="s">
         <v>548</v>
       </c>
-      <c r="C130" t="s">
+      <c r="J130" t="s">
         <v>549</v>
-      </c>
-      <c r="D130" t="s">
-        <v>403</v>
-      </c>
-      <c r="F130" t="s">
-        <v>404</v>
-      </c>
-      <c r="G130" t="s">
-        <v>405</v>
-      </c>
-      <c r="H130" t="s">
-        <v>520</v>
-      </c>
-      <c r="I130" t="s">
-        <v>550</v>
-      </c>
-      <c r="J130" t="s">
-        <v>551</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>29</v>
@@ -7590,31 +7787,31 @@
     </row>
     <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>550</v>
+      </c>
+      <c r="B131" t="s">
+        <v>551</v>
+      </c>
+      <c r="C131" t="s">
         <v>552</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
+        <v>401</v>
+      </c>
+      <c r="F131" t="s">
+        <v>402</v>
+      </c>
+      <c r="G131" t="s">
+        <v>403</v>
+      </c>
+      <c r="H131" t="s">
+        <v>518</v>
+      </c>
+      <c r="I131" t="s">
         <v>553</v>
       </c>
-      <c r="C131" t="s">
+      <c r="J131" t="s">
         <v>554</v>
-      </c>
-      <c r="D131" t="s">
-        <v>403</v>
-      </c>
-      <c r="F131" t="s">
-        <v>404</v>
-      </c>
-      <c r="G131" t="s">
-        <v>405</v>
-      </c>
-      <c r="H131" t="s">
-        <v>520</v>
-      </c>
-      <c r="I131" t="s">
-        <v>555</v>
-      </c>
-      <c r="J131" t="s">
-        <v>556</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>29</v>
@@ -7624,28 +7821,28 @@
     </row>
     <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>555</v>
+      </c>
+      <c r="B132" t="s">
+        <v>556</v>
+      </c>
+      <c r="C132" t="s">
         <v>557</v>
       </c>
-      <c r="B132" t="s">
+      <c r="F132" t="s">
+        <v>402</v>
+      </c>
+      <c r="G132" t="s">
+        <v>403</v>
+      </c>
+      <c r="H132" t="s">
+        <v>518</v>
+      </c>
+      <c r="I132" t="s">
         <v>558</v>
       </c>
-      <c r="C132" t="s">
+      <c r="J132" t="s">
         <v>559</v>
-      </c>
-      <c r="F132" t="s">
-        <v>404</v>
-      </c>
-      <c r="G132" t="s">
-        <v>405</v>
-      </c>
-      <c r="H132" t="s">
-        <v>520</v>
-      </c>
-      <c r="I132" t="s">
-        <v>560</v>
-      </c>
-      <c r="J132" t="s">
-        <v>561</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>29</v>
@@ -7655,31 +7852,31 @@
     </row>
     <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>560</v>
+      </c>
+      <c r="B133" t="s">
+        <v>561</v>
+      </c>
+      <c r="C133" t="s">
         <v>562</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
+        <v>401</v>
+      </c>
+      <c r="F133" t="s">
+        <v>402</v>
+      </c>
+      <c r="G133" t="s">
+        <v>403</v>
+      </c>
+      <c r="H133" t="s">
+        <v>518</v>
+      </c>
+      <c r="I133" t="s">
+        <v>519</v>
+      </c>
+      <c r="J133" t="s">
         <v>563</v>
-      </c>
-      <c r="C133" t="s">
-        <v>564</v>
-      </c>
-      <c r="D133" t="s">
-        <v>403</v>
-      </c>
-      <c r="F133" t="s">
-        <v>404</v>
-      </c>
-      <c r="G133" t="s">
-        <v>405</v>
-      </c>
-      <c r="H133" t="s">
-        <v>520</v>
-      </c>
-      <c r="I133" t="s">
-        <v>521</v>
-      </c>
-      <c r="J133" t="s">
-        <v>565</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>29</v>
@@ -7689,31 +7886,31 @@
     </row>
     <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>564</v>
+      </c>
+      <c r="B134" t="s">
+        <v>565</v>
+      </c>
+      <c r="C134" t="s">
         <v>566</v>
       </c>
-      <c r="B134" t="s">
-        <v>567</v>
-      </c>
-      <c r="C134" t="s">
-        <v>568</v>
-      </c>
       <c r="D134" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F134" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G134" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H134" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I134" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J134" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>29</v>
@@ -7723,31 +7920,31 @@
     </row>
     <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>567</v>
+      </c>
+      <c r="B135" t="s">
+        <v>568</v>
+      </c>
+      <c r="C135" t="s">
         <v>569</v>
       </c>
-      <c r="B135" t="s">
-        <v>570</v>
-      </c>
-      <c r="C135" t="s">
-        <v>571</v>
-      </c>
       <c r="D135" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F135" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G135" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H135" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I135" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J135" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>29</v>
@@ -7757,31 +7954,31 @@
     </row>
     <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>570</v>
+      </c>
+      <c r="B136" t="s">
+        <v>571</v>
+      </c>
+      <c r="C136" t="s">
         <v>572</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
+        <v>401</v>
+      </c>
+      <c r="F136" t="s">
+        <v>402</v>
+      </c>
+      <c r="G136" t="s">
+        <v>403</v>
+      </c>
+      <c r="H136" t="s">
+        <v>518</v>
+      </c>
+      <c r="I136" t="s">
         <v>573</v>
       </c>
-      <c r="C136" t="s">
+      <c r="J136" t="s">
         <v>574</v>
-      </c>
-      <c r="D136" t="s">
-        <v>403</v>
-      </c>
-      <c r="F136" t="s">
-        <v>404</v>
-      </c>
-      <c r="G136" t="s">
-        <v>405</v>
-      </c>
-      <c r="H136" t="s">
-        <v>520</v>
-      </c>
-      <c r="I136" t="s">
-        <v>575</v>
-      </c>
-      <c r="J136" t="s">
-        <v>576</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>29</v>
@@ -7791,28 +7988,28 @@
     </row>
     <row r="137" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>575</v>
+      </c>
+      <c r="B137" t="s">
+        <v>576</v>
+      </c>
+      <c r="C137" t="s">
         <v>577</v>
       </c>
-      <c r="B137" t="s">
-        <v>578</v>
-      </c>
-      <c r="C137" t="s">
-        <v>579</v>
-      </c>
       <c r="F137" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G137" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H137" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I137" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J137" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>25</v>
@@ -7822,31 +8019,31 @@
     </row>
     <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>578</v>
+      </c>
+      <c r="B138" t="s">
+        <v>579</v>
+      </c>
+      <c r="C138" t="s">
         <v>580</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D138" t="s">
+        <v>401</v>
+      </c>
+      <c r="F138" t="s">
+        <v>402</v>
+      </c>
+      <c r="G138" t="s">
+        <v>403</v>
+      </c>
+      <c r="H138" t="s">
+        <v>518</v>
+      </c>
+      <c r="I138" t="s">
+        <v>548</v>
+      </c>
+      <c r="J138" t="s">
         <v>581</v>
-      </c>
-      <c r="C138" t="s">
-        <v>582</v>
-      </c>
-      <c r="D138" t="s">
-        <v>403</v>
-      </c>
-      <c r="F138" t="s">
-        <v>404</v>
-      </c>
-      <c r="G138" t="s">
-        <v>405</v>
-      </c>
-      <c r="H138" t="s">
-        <v>520</v>
-      </c>
-      <c r="I138" t="s">
-        <v>550</v>
-      </c>
-      <c r="J138" t="s">
-        <v>583</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>29</v>
@@ -7856,31 +8053,31 @@
     </row>
     <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>582</v>
+      </c>
+      <c r="B139" t="s">
+        <v>583</v>
+      </c>
+      <c r="C139" t="s">
         <v>584</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
+        <v>401</v>
+      </c>
+      <c r="F139" t="s">
+        <v>402</v>
+      </c>
+      <c r="G139" t="s">
+        <v>403</v>
+      </c>
+      <c r="H139" t="s">
+        <v>518</v>
+      </c>
+      <c r="I139" t="s">
         <v>585</v>
       </c>
-      <c r="C139" t="s">
+      <c r="J139" t="s">
         <v>586</v>
-      </c>
-      <c r="D139" t="s">
-        <v>403</v>
-      </c>
-      <c r="F139" t="s">
-        <v>404</v>
-      </c>
-      <c r="G139" t="s">
-        <v>405</v>
-      </c>
-      <c r="H139" t="s">
-        <v>520</v>
-      </c>
-      <c r="I139" t="s">
-        <v>587</v>
-      </c>
-      <c r="J139" t="s">
-        <v>588</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>29</v>
@@ -7890,28 +8087,28 @@
     </row>
     <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>587</v>
+      </c>
+      <c r="B140" t="s">
+        <v>588</v>
+      </c>
+      <c r="C140" t="s">
         <v>589</v>
       </c>
-      <c r="B140" t="s">
-        <v>590</v>
-      </c>
-      <c r="C140" t="s">
-        <v>591</v>
-      </c>
       <c r="F140" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G140" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H140" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I140" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J140" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>29</v>
@@ -7921,31 +8118,31 @@
     </row>
     <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>590</v>
+      </c>
+      <c r="B141" t="s">
+        <v>591</v>
+      </c>
+      <c r="C141" t="s">
         <v>592</v>
       </c>
-      <c r="B141" t="s">
-        <v>593</v>
-      </c>
-      <c r="C141" t="s">
-        <v>594</v>
-      </c>
       <c r="D141" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F141" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G141" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H141" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I141" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J141" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>29</v>
@@ -7955,31 +8152,31 @@
     </row>
     <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>593</v>
+      </c>
+      <c r="B142" t="s">
+        <v>594</v>
+      </c>
+      <c r="C142" t="s">
         <v>595</v>
       </c>
-      <c r="B142" t="s">
-        <v>596</v>
-      </c>
-      <c r="C142" t="s">
-        <v>597</v>
-      </c>
       <c r="D142" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F142" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G142" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H142" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I142" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J142" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>29</v>
@@ -7989,31 +8186,31 @@
     </row>
     <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>596</v>
+      </c>
+      <c r="B143" t="s">
+        <v>597</v>
+      </c>
+      <c r="C143" t="s">
         <v>598</v>
       </c>
-      <c r="B143" t="s">
-        <v>599</v>
-      </c>
-      <c r="C143" t="s">
-        <v>600</v>
-      </c>
       <c r="D143" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F143" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G143" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H143" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I143" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J143" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>29</v>
@@ -8023,31 +8220,31 @@
     </row>
     <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>599</v>
+      </c>
+      <c r="B144" t="s">
+        <v>600</v>
+      </c>
+      <c r="C144" t="s">
         <v>601</v>
       </c>
-      <c r="B144" t="s">
-        <v>602</v>
-      </c>
-      <c r="C144" t="s">
-        <v>603</v>
-      </c>
       <c r="D144" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F144" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G144" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H144" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I144" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J144" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>29</v>
@@ -8057,31 +8254,31 @@
     </row>
     <row r="145" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>602</v>
+      </c>
+      <c r="B145" t="s">
+        <v>603</v>
+      </c>
+      <c r="C145" t="s">
         <v>604</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
+        <v>401</v>
+      </c>
+      <c r="F145" t="s">
+        <v>402</v>
+      </c>
+      <c r="G145" t="s">
+        <v>403</v>
+      </c>
+      <c r="H145" t="s">
+        <v>518</v>
+      </c>
+      <c r="I145" t="s">
+        <v>548</v>
+      </c>
+      <c r="J145" t="s">
         <v>605</v>
-      </c>
-      <c r="C145" t="s">
-        <v>606</v>
-      </c>
-      <c r="D145" t="s">
-        <v>403</v>
-      </c>
-      <c r="F145" t="s">
-        <v>404</v>
-      </c>
-      <c r="G145" t="s">
-        <v>405</v>
-      </c>
-      <c r="H145" t="s">
-        <v>520</v>
-      </c>
-      <c r="I145" t="s">
-        <v>550</v>
-      </c>
-      <c r="J145" t="s">
-        <v>607</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>25</v>
@@ -8091,31 +8288,31 @@
     </row>
     <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>606</v>
+      </c>
+      <c r="B146" t="s">
+        <v>607</v>
+      </c>
+      <c r="C146" t="s">
         <v>608</v>
       </c>
-      <c r="B146" t="s">
-        <v>609</v>
-      </c>
-      <c r="C146" t="s">
-        <v>610</v>
-      </c>
       <c r="D146" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F146" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G146" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H146" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I146" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J146" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>29</v>
@@ -8125,31 +8322,31 @@
     </row>
     <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>609</v>
+      </c>
+      <c r="B147" t="s">
+        <v>610</v>
+      </c>
+      <c r="C147" t="s">
         <v>611</v>
       </c>
-      <c r="B147" t="s">
-        <v>612</v>
-      </c>
-      <c r="C147" t="s">
-        <v>613</v>
-      </c>
       <c r="D147" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F147" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G147" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H147" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I147" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J147" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>29</v>
@@ -8159,31 +8356,31 @@
     </row>
     <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>612</v>
+      </c>
+      <c r="B148" t="s">
+        <v>613</v>
+      </c>
+      <c r="C148" t="s">
         <v>614</v>
       </c>
-      <c r="B148" t="s">
-        <v>615</v>
-      </c>
-      <c r="C148" t="s">
-        <v>616</v>
-      </c>
       <c r="D148" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F148" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G148" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H148" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I148" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J148" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>29</v>
@@ -8193,31 +8390,31 @@
     </row>
     <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>615</v>
+      </c>
+      <c r="B149" t="s">
+        <v>616</v>
+      </c>
+      <c r="C149" t="s">
         <v>617</v>
       </c>
-      <c r="B149" t="s">
-        <v>618</v>
-      </c>
-      <c r="C149" t="s">
-        <v>619</v>
-      </c>
       <c r="D149" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F149" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G149" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H149" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I149" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J149" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>29</v>
@@ -8227,31 +8424,31 @@
     </row>
     <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>618</v>
+      </c>
+      <c r="B150" t="s">
+        <v>619</v>
+      </c>
+      <c r="C150" t="s">
         <v>620</v>
       </c>
-      <c r="B150" t="s">
-        <v>621</v>
-      </c>
-      <c r="C150" t="s">
-        <v>622</v>
-      </c>
       <c r="D150" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F150" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G150" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H150" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I150" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J150" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K150" s="1" t="s">
         <v>29</v>
@@ -8261,31 +8458,31 @@
     </row>
     <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>621</v>
+      </c>
+      <c r="B151" t="s">
+        <v>622</v>
+      </c>
+      <c r="C151" t="s">
         <v>623</v>
       </c>
-      <c r="B151" t="s">
-        <v>624</v>
-      </c>
-      <c r="C151" t="s">
-        <v>625</v>
-      </c>
       <c r="D151" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F151" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G151" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H151" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I151" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J151" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>29</v>
@@ -8295,28 +8492,28 @@
     </row>
     <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>624</v>
+      </c>
+      <c r="B152" t="s">
+        <v>625</v>
+      </c>
+      <c r="C152" t="s">
         <v>626</v>
       </c>
-      <c r="B152" t="s">
+      <c r="F152" t="s">
+        <v>402</v>
+      </c>
+      <c r="G152" t="s">
+        <v>403</v>
+      </c>
+      <c r="H152" t="s">
+        <v>518</v>
+      </c>
+      <c r="I152" t="s">
         <v>627</v>
       </c>
-      <c r="C152" t="s">
+      <c r="J152" t="s">
         <v>628</v>
-      </c>
-      <c r="F152" t="s">
-        <v>404</v>
-      </c>
-      <c r="G152" t="s">
-        <v>405</v>
-      </c>
-      <c r="H152" t="s">
-        <v>520</v>
-      </c>
-      <c r="I152" t="s">
-        <v>629</v>
-      </c>
-      <c r="J152" t="s">
-        <v>630</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>29</v>
@@ -8326,31 +8523,31 @@
     </row>
     <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>629</v>
+      </c>
+      <c r="B153" t="s">
+        <v>630</v>
+      </c>
+      <c r="C153" t="s">
         <v>631</v>
       </c>
-      <c r="B153" t="s">
-        <v>632</v>
-      </c>
-      <c r="C153" t="s">
-        <v>633</v>
-      </c>
       <c r="D153" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F153" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G153" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H153" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I153" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J153" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>29</v>
@@ -8360,28 +8557,28 @@
     </row>
     <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>632</v>
+      </c>
+      <c r="B154" t="s">
+        <v>633</v>
+      </c>
+      <c r="C154" t="s">
         <v>634</v>
       </c>
-      <c r="B154" t="s">
+      <c r="F154" t="s">
+        <v>402</v>
+      </c>
+      <c r="G154" t="s">
+        <v>403</v>
+      </c>
+      <c r="H154" t="s">
+        <v>518</v>
+      </c>
+      <c r="I154" t="s">
+        <v>553</v>
+      </c>
+      <c r="J154" t="s">
         <v>635</v>
-      </c>
-      <c r="C154" t="s">
-        <v>636</v>
-      </c>
-      <c r="F154" t="s">
-        <v>404</v>
-      </c>
-      <c r="G154" t="s">
-        <v>405</v>
-      </c>
-      <c r="H154" t="s">
-        <v>520</v>
-      </c>
-      <c r="I154" t="s">
-        <v>555</v>
-      </c>
-      <c r="J154" t="s">
-        <v>637</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>29</v>
@@ -8391,31 +8588,31 @@
     </row>
     <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>636</v>
+      </c>
+      <c r="B155" t="s">
+        <v>637</v>
+      </c>
+      <c r="C155" t="s">
         <v>638</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
+        <v>401</v>
+      </c>
+      <c r="F155" t="s">
+        <v>402</v>
+      </c>
+      <c r="G155" t="s">
+        <v>403</v>
+      </c>
+      <c r="H155" t="s">
+        <v>518</v>
+      </c>
+      <c r="I155" t="s">
         <v>639</v>
       </c>
-      <c r="C155" t="s">
+      <c r="J155" t="s">
         <v>640</v>
-      </c>
-      <c r="D155" t="s">
-        <v>403</v>
-      </c>
-      <c r="F155" t="s">
-        <v>404</v>
-      </c>
-      <c r="G155" t="s">
-        <v>405</v>
-      </c>
-      <c r="H155" t="s">
-        <v>520</v>
-      </c>
-      <c r="I155" t="s">
-        <v>641</v>
-      </c>
-      <c r="J155" t="s">
-        <v>642</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>29</v>
@@ -8425,31 +8622,31 @@
     </row>
     <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>641</v>
+      </c>
+      <c r="B156" t="s">
+        <v>642</v>
+      </c>
+      <c r="C156" t="s">
         <v>643</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
+        <v>401</v>
+      </c>
+      <c r="F156" t="s">
+        <v>402</v>
+      </c>
+      <c r="G156" t="s">
+        <v>403</v>
+      </c>
+      <c r="H156" t="s">
+        <v>518</v>
+      </c>
+      <c r="I156" t="s">
         <v>644</v>
       </c>
-      <c r="C156" t="s">
+      <c r="J156" t="s">
         <v>645</v>
-      </c>
-      <c r="D156" t="s">
-        <v>403</v>
-      </c>
-      <c r="F156" t="s">
-        <v>404</v>
-      </c>
-      <c r="G156" t="s">
-        <v>405</v>
-      </c>
-      <c r="H156" t="s">
-        <v>520</v>
-      </c>
-      <c r="I156" t="s">
-        <v>646</v>
-      </c>
-      <c r="J156" t="s">
-        <v>647</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>29</v>
@@ -8459,31 +8656,31 @@
     </row>
     <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>646</v>
+      </c>
+      <c r="B157" t="s">
+        <v>647</v>
+      </c>
+      <c r="C157" t="s">
         <v>648</v>
       </c>
-      <c r="B157" t="s">
-        <v>649</v>
-      </c>
-      <c r="C157" t="s">
-        <v>650</v>
-      </c>
       <c r="D157" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F157" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G157" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H157" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I157" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J157" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>29</v>
@@ -8493,31 +8690,31 @@
     </row>
     <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>649</v>
+      </c>
+      <c r="B158" t="s">
+        <v>650</v>
+      </c>
+      <c r="C158" t="s">
         <v>651</v>
       </c>
-      <c r="B158" t="s">
-        <v>652</v>
-      </c>
-      <c r="C158" t="s">
-        <v>653</v>
-      </c>
       <c r="D158" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F158" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G158" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H158" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I158" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J158" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>29</v>
@@ -8527,31 +8724,31 @@
     </row>
     <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>652</v>
+      </c>
+      <c r="B159" t="s">
+        <v>653</v>
+      </c>
+      <c r="C159" t="s">
         <v>654</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
+        <v>401</v>
+      </c>
+      <c r="F159" t="s">
+        <v>402</v>
+      </c>
+      <c r="G159" t="s">
+        <v>403</v>
+      </c>
+      <c r="H159" t="s">
+        <v>518</v>
+      </c>
+      <c r="I159" t="s">
+        <v>519</v>
+      </c>
+      <c r="J159" t="s">
         <v>655</v>
-      </c>
-      <c r="C159" t="s">
-        <v>656</v>
-      </c>
-      <c r="D159" t="s">
-        <v>403</v>
-      </c>
-      <c r="F159" t="s">
-        <v>404</v>
-      </c>
-      <c r="G159" t="s">
-        <v>405</v>
-      </c>
-      <c r="H159" t="s">
-        <v>520</v>
-      </c>
-      <c r="I159" t="s">
-        <v>521</v>
-      </c>
-      <c r="J159" t="s">
-        <v>657</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>29</v>
@@ -8561,31 +8758,31 @@
     </row>
     <row r="160" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>656</v>
+      </c>
+      <c r="B160" t="s">
+        <v>657</v>
+      </c>
+      <c r="C160" t="s">
         <v>658</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
+        <v>401</v>
+      </c>
+      <c r="F160" t="s">
+        <v>402</v>
+      </c>
+      <c r="G160" t="s">
+        <v>403</v>
+      </c>
+      <c r="H160" t="s">
+        <v>518</v>
+      </c>
+      <c r="I160" t="s">
+        <v>627</v>
+      </c>
+      <c r="J160" t="s">
         <v>659</v>
-      </c>
-      <c r="C160" t="s">
-        <v>660</v>
-      </c>
-      <c r="D160" t="s">
-        <v>403</v>
-      </c>
-      <c r="F160" t="s">
-        <v>404</v>
-      </c>
-      <c r="G160" t="s">
-        <v>405</v>
-      </c>
-      <c r="H160" t="s">
-        <v>520</v>
-      </c>
-      <c r="I160" t="s">
-        <v>629</v>
-      </c>
-      <c r="J160" t="s">
-        <v>661</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>25</v>
@@ -8595,28 +8792,28 @@
     </row>
     <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>660</v>
+      </c>
+      <c r="B161" t="s">
+        <v>661</v>
+      </c>
+      <c r="C161" t="s">
         <v>662</v>
       </c>
-      <c r="B161" t="s">
-        <v>663</v>
-      </c>
-      <c r="C161" t="s">
-        <v>664</v>
-      </c>
       <c r="F161" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G161" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H161" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I161" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J161" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>29</v>
@@ -8626,28 +8823,28 @@
     </row>
     <row r="162" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>663</v>
+      </c>
+      <c r="B162" t="s">
+        <v>664</v>
+      </c>
+      <c r="C162" t="s">
         <v>665</v>
       </c>
-      <c r="B162" t="s">
+      <c r="F162" t="s">
+        <v>402</v>
+      </c>
+      <c r="G162" t="s">
+        <v>403</v>
+      </c>
+      <c r="H162" t="s">
+        <v>518</v>
+      </c>
+      <c r="I162" t="s">
+        <v>644</v>
+      </c>
+      <c r="J162" t="s">
         <v>666</v>
-      </c>
-      <c r="C162" t="s">
-        <v>667</v>
-      </c>
-      <c r="F162" t="s">
-        <v>404</v>
-      </c>
-      <c r="G162" t="s">
-        <v>405</v>
-      </c>
-      <c r="H162" t="s">
-        <v>520</v>
-      </c>
-      <c r="I162" t="s">
-        <v>646</v>
-      </c>
-      <c r="J162" t="s">
-        <v>668</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>25</v>
@@ -8657,31 +8854,31 @@
     </row>
     <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>667</v>
+      </c>
+      <c r="B163" t="s">
+        <v>668</v>
+      </c>
+      <c r="C163" t="s">
         <v>669</v>
       </c>
-      <c r="B163" t="s">
-        <v>670</v>
-      </c>
-      <c r="C163" t="s">
-        <v>671</v>
-      </c>
       <c r="D163" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F163" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G163" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H163" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I163" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J163" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>29</v>
@@ -8691,28 +8888,28 @@
     </row>
     <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>670</v>
+      </c>
+      <c r="B164" t="s">
+        <v>671</v>
+      </c>
+      <c r="C164" t="s">
         <v>672</v>
       </c>
-      <c r="B164" t="s">
-        <v>673</v>
-      </c>
-      <c r="C164" t="s">
-        <v>674</v>
-      </c>
       <c r="F164" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G164" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H164" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I164" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J164" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>29</v>
@@ -8722,28 +8919,28 @@
     </row>
     <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>673</v>
+      </c>
+      <c r="B165" t="s">
+        <v>674</v>
+      </c>
+      <c r="C165" t="s">
         <v>675</v>
       </c>
-      <c r="B165" t="s">
-        <v>676</v>
-      </c>
-      <c r="C165" t="s">
-        <v>677</v>
-      </c>
       <c r="F165" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G165" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H165" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I165" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J165" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>29</v>
@@ -8753,31 +8950,31 @@
     </row>
     <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>676</v>
+      </c>
+      <c r="B166" t="s">
+        <v>677</v>
+      </c>
+      <c r="C166" t="s">
         <v>678</v>
       </c>
-      <c r="B166" t="s">
-        <v>679</v>
-      </c>
-      <c r="C166" t="s">
-        <v>680</v>
-      </c>
       <c r="D166" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F166" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G166" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H166" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I166" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J166" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>29</v>
@@ -8787,31 +8984,31 @@
     </row>
     <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>679</v>
+      </c>
+      <c r="B167" t="s">
+        <v>680</v>
+      </c>
+      <c r="C167" t="s">
         <v>681</v>
       </c>
-      <c r="B167" t="s">
-        <v>682</v>
-      </c>
-      <c r="C167" t="s">
-        <v>683</v>
-      </c>
       <c r="D167" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F167" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G167" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H167" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I167" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J167" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>29</v>
@@ -8821,31 +9018,31 @@
     </row>
     <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>682</v>
+      </c>
+      <c r="B168" t="s">
+        <v>683</v>
+      </c>
+      <c r="C168" t="s">
         <v>684</v>
       </c>
-      <c r="B168" t="s">
-        <v>685</v>
-      </c>
-      <c r="C168" t="s">
-        <v>686</v>
-      </c>
       <c r="D168" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F168" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G168" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H168" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I168" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J168" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>29</v>
@@ -8855,28 +9052,28 @@
     </row>
     <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>685</v>
+      </c>
+      <c r="B169" t="s">
+        <v>686</v>
+      </c>
+      <c r="C169" t="s">
         <v>687</v>
       </c>
-      <c r="B169" t="s">
-        <v>688</v>
-      </c>
-      <c r="C169" t="s">
-        <v>689</v>
-      </c>
       <c r="F169" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G169" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H169" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I169" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J169" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>29</v>
@@ -8886,31 +9083,31 @@
     </row>
     <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>688</v>
+      </c>
+      <c r="B170" t="s">
+        <v>689</v>
+      </c>
+      <c r="C170" t="s">
         <v>690</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
+        <v>401</v>
+      </c>
+      <c r="F170" t="s">
+        <v>402</v>
+      </c>
+      <c r="G170" t="s">
+        <v>403</v>
+      </c>
+      <c r="H170" t="s">
+        <v>518</v>
+      </c>
+      <c r="I170" t="s">
+        <v>553</v>
+      </c>
+      <c r="J170" t="s">
         <v>691</v>
-      </c>
-      <c r="C170" t="s">
-        <v>692</v>
-      </c>
-      <c r="D170" t="s">
-        <v>403</v>
-      </c>
-      <c r="F170" t="s">
-        <v>404</v>
-      </c>
-      <c r="G170" t="s">
-        <v>405</v>
-      </c>
-      <c r="H170" t="s">
-        <v>520</v>
-      </c>
-      <c r="I170" t="s">
-        <v>555</v>
-      </c>
-      <c r="J170" t="s">
-        <v>693</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>29</v>
@@ -8920,28 +9117,28 @@
     </row>
     <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>692</v>
+      </c>
+      <c r="B171" t="s">
+        <v>693</v>
+      </c>
+      <c r="C171" t="s">
         <v>694</v>
       </c>
-      <c r="B171" t="s">
-        <v>695</v>
-      </c>
-      <c r="C171" t="s">
-        <v>696</v>
-      </c>
       <c r="F171" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G171" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H171" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I171" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J171" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>29</v>
@@ -8951,31 +9148,31 @@
     </row>
     <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>695</v>
+      </c>
+      <c r="B172" t="s">
+        <v>696</v>
+      </c>
+      <c r="C172" t="s">
         <v>697</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
+        <v>401</v>
+      </c>
+      <c r="F172" t="s">
+        <v>402</v>
+      </c>
+      <c r="G172" t="s">
+        <v>403</v>
+      </c>
+      <c r="H172" t="s">
+        <v>518</v>
+      </c>
+      <c r="I172" t="s">
         <v>698</v>
       </c>
-      <c r="C172" t="s">
+      <c r="J172" t="s">
         <v>699</v>
-      </c>
-      <c r="D172" t="s">
-        <v>403</v>
-      </c>
-      <c r="F172" t="s">
-        <v>404</v>
-      </c>
-      <c r="G172" t="s">
-        <v>405</v>
-      </c>
-      <c r="H172" t="s">
-        <v>520</v>
-      </c>
-      <c r="I172" t="s">
-        <v>700</v>
-      </c>
-      <c r="J172" t="s">
-        <v>701</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>29</v>
@@ -8985,31 +9182,31 @@
     </row>
     <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>700</v>
+      </c>
+      <c r="B173" t="s">
+        <v>701</v>
+      </c>
+      <c r="C173" t="s">
         <v>702</v>
       </c>
-      <c r="B173" t="s">
-        <v>703</v>
-      </c>
-      <c r="C173" t="s">
-        <v>704</v>
-      </c>
       <c r="D173" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F173" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G173" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H173" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I173" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J173" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>29</v>
@@ -9019,28 +9216,28 @@
     </row>
     <row r="174" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>703</v>
+      </c>
+      <c r="B174" t="s">
+        <v>704</v>
+      </c>
+      <c r="C174" t="s">
         <v>705</v>
       </c>
-      <c r="B174" t="s">
-        <v>706</v>
-      </c>
-      <c r="C174" t="s">
-        <v>707</v>
-      </c>
       <c r="F174" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G174" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H174" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I174" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J174" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>25</v>
@@ -9050,31 +9247,31 @@
     </row>
     <row r="175" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>706</v>
+      </c>
+      <c r="B175" t="s">
+        <v>707</v>
+      </c>
+      <c r="C175" t="s">
         <v>708</v>
       </c>
-      <c r="B175" t="s">
-        <v>709</v>
-      </c>
-      <c r="C175" t="s">
-        <v>710</v>
-      </c>
       <c r="D175" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F175" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G175" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H175" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I175" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J175" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>25</v>
@@ -9084,31 +9281,31 @@
     </row>
     <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>709</v>
+      </c>
+      <c r="B176" t="s">
+        <v>710</v>
+      </c>
+      <c r="C176" t="s">
         <v>711</v>
       </c>
-      <c r="B176" t="s">
+      <c r="D176" t="s">
+        <v>401</v>
+      </c>
+      <c r="F176" t="s">
+        <v>402</v>
+      </c>
+      <c r="G176" t="s">
+        <v>403</v>
+      </c>
+      <c r="H176" t="s">
+        <v>518</v>
+      </c>
+      <c r="I176" t="s">
+        <v>639</v>
+      </c>
+      <c r="J176" t="s">
         <v>712</v>
-      </c>
-      <c r="C176" t="s">
-        <v>713</v>
-      </c>
-      <c r="D176" t="s">
-        <v>403</v>
-      </c>
-      <c r="F176" t="s">
-        <v>404</v>
-      </c>
-      <c r="G176" t="s">
-        <v>405</v>
-      </c>
-      <c r="H176" t="s">
-        <v>520</v>
-      </c>
-      <c r="I176" t="s">
-        <v>641</v>
-      </c>
-      <c r="J176" t="s">
-        <v>714</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>29</v>
@@ -9118,31 +9315,31 @@
     </row>
     <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>713</v>
+      </c>
+      <c r="B177" t="s">
+        <v>714</v>
+      </c>
+      <c r="C177" t="s">
         <v>715</v>
       </c>
-      <c r="B177" t="s">
-        <v>716</v>
-      </c>
-      <c r="C177" t="s">
-        <v>717</v>
-      </c>
       <c r="D177" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F177" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H177" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I177" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J177" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>29</v>
@@ -9152,31 +9349,31 @@
     </row>
     <row r="178" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>716</v>
+      </c>
+      <c r="B178" t="s">
+        <v>717</v>
+      </c>
+      <c r="C178" t="s">
         <v>718</v>
       </c>
-      <c r="B178" t="s">
-        <v>719</v>
-      </c>
-      <c r="C178" t="s">
-        <v>720</v>
-      </c>
       <c r="D178" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F178" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G178" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H178" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I178" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J178" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>25</v>
@@ -9186,28 +9383,28 @@
     </row>
     <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>719</v>
+      </c>
+      <c r="B179" t="s">
+        <v>720</v>
+      </c>
+      <c r="C179" t="s">
         <v>721</v>
       </c>
-      <c r="B179" t="s">
+      <c r="F179" t="s">
+        <v>402</v>
+      </c>
+      <c r="G179" t="s">
+        <v>403</v>
+      </c>
+      <c r="H179" t="s">
+        <v>518</v>
+      </c>
+      <c r="I179" t="s">
+        <v>639</v>
+      </c>
+      <c r="J179" t="s">
         <v>722</v>
-      </c>
-      <c r="C179" t="s">
-        <v>723</v>
-      </c>
-      <c r="F179" t="s">
-        <v>404</v>
-      </c>
-      <c r="G179" t="s">
-        <v>405</v>
-      </c>
-      <c r="H179" t="s">
-        <v>520</v>
-      </c>
-      <c r="I179" t="s">
-        <v>641</v>
-      </c>
-      <c r="J179" t="s">
-        <v>724</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>29</v>
@@ -9217,28 +9414,28 @@
     </row>
     <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>723</v>
+      </c>
+      <c r="B180" t="s">
+        <v>724</v>
+      </c>
+      <c r="C180" t="s">
         <v>725</v>
       </c>
-      <c r="B180" t="s">
-        <v>726</v>
-      </c>
-      <c r="C180" t="s">
-        <v>727</v>
-      </c>
       <c r="F180" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G180" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H180" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I180" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J180" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>29</v>
@@ -9248,28 +9445,28 @@
     </row>
     <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>726</v>
+      </c>
+      <c r="B181" t="s">
+        <v>727</v>
+      </c>
+      <c r="C181" t="s">
         <v>728</v>
       </c>
-      <c r="B181" t="s">
-        <v>729</v>
-      </c>
-      <c r="C181" t="s">
-        <v>730</v>
-      </c>
       <c r="F181" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G181" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H181" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I181" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J181" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>29</v>
@@ -9279,31 +9476,31 @@
     </row>
     <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>729</v>
+      </c>
+      <c r="B182" t="s">
+        <v>730</v>
+      </c>
+      <c r="C182" t="s">
         <v>731</v>
       </c>
-      <c r="B182" t="s">
-        <v>732</v>
-      </c>
-      <c r="C182" t="s">
-        <v>733</v>
-      </c>
       <c r="D182" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F182" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G182" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H182" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I182" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J182" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>29</v>
@@ -9313,31 +9510,31 @@
     </row>
     <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>732</v>
+      </c>
+      <c r="B183" t="s">
+        <v>733</v>
+      </c>
+      <c r="C183" t="s">
         <v>734</v>
       </c>
-      <c r="B183" t="s">
+      <c r="D183" t="s">
+        <v>401</v>
+      </c>
+      <c r="F183" t="s">
+        <v>402</v>
+      </c>
+      <c r="G183" t="s">
+        <v>403</v>
+      </c>
+      <c r="H183" t="s">
+        <v>518</v>
+      </c>
+      <c r="I183" t="s">
+        <v>519</v>
+      </c>
+      <c r="J183" t="s">
         <v>735</v>
-      </c>
-      <c r="C183" t="s">
-        <v>736</v>
-      </c>
-      <c r="D183" t="s">
-        <v>403</v>
-      </c>
-      <c r="F183" t="s">
-        <v>404</v>
-      </c>
-      <c r="G183" t="s">
-        <v>405</v>
-      </c>
-      <c r="H183" t="s">
-        <v>520</v>
-      </c>
-      <c r="I183" t="s">
-        <v>521</v>
-      </c>
-      <c r="J183" t="s">
-        <v>737</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>29</v>
@@ -9347,31 +9544,31 @@
     </row>
     <row r="184" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>736</v>
+      </c>
+      <c r="B184" t="s">
+        <v>737</v>
+      </c>
+      <c r="C184" t="s">
         <v>738</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D184" t="s">
+        <v>401</v>
+      </c>
+      <c r="F184" t="s">
+        <v>402</v>
+      </c>
+      <c r="G184" t="s">
+        <v>403</v>
+      </c>
+      <c r="H184" t="s">
+        <v>518</v>
+      </c>
+      <c r="I184" t="s">
         <v>739</v>
       </c>
-      <c r="C184" t="s">
+      <c r="J184" t="s">
         <v>740</v>
-      </c>
-      <c r="D184" t="s">
-        <v>403</v>
-      </c>
-      <c r="F184" t="s">
-        <v>404</v>
-      </c>
-      <c r="G184" t="s">
-        <v>405</v>
-      </c>
-      <c r="H184" t="s">
-        <v>520</v>
-      </c>
-      <c r="I184" t="s">
-        <v>741</v>
-      </c>
-      <c r="J184" t="s">
-        <v>742</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>25</v>
@@ -9381,31 +9578,31 @@
     </row>
     <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>741</v>
+      </c>
+      <c r="B185" t="s">
+        <v>742</v>
+      </c>
+      <c r="C185" t="s">
         <v>743</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D185" t="s">
+        <v>401</v>
+      </c>
+      <c r="F185" t="s">
+        <v>402</v>
+      </c>
+      <c r="G185" t="s">
+        <v>403</v>
+      </c>
+      <c r="H185" t="s">
+        <v>518</v>
+      </c>
+      <c r="I185" t="s">
+        <v>553</v>
+      </c>
+      <c r="J185" t="s">
         <v>744</v>
-      </c>
-      <c r="C185" t="s">
-        <v>745</v>
-      </c>
-      <c r="D185" t="s">
-        <v>403</v>
-      </c>
-      <c r="F185" t="s">
-        <v>404</v>
-      </c>
-      <c r="G185" t="s">
-        <v>405</v>
-      </c>
-      <c r="H185" t="s">
-        <v>520</v>
-      </c>
-      <c r="I185" t="s">
-        <v>555</v>
-      </c>
-      <c r="J185" t="s">
-        <v>746</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>29</v>
@@ -9415,31 +9612,31 @@
     </row>
     <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>745</v>
+      </c>
+      <c r="B186" t="s">
+        <v>746</v>
+      </c>
+      <c r="C186" t="s">
         <v>747</v>
       </c>
-      <c r="B186" t="s">
-        <v>748</v>
-      </c>
-      <c r="C186" t="s">
-        <v>749</v>
-      </c>
       <c r="D186" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F186" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G186" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H186" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I186" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J186" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>29</v>
@@ -9449,31 +9646,31 @@
     </row>
     <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>748</v>
+      </c>
+      <c r="B187" t="s">
+        <v>749</v>
+      </c>
+      <c r="C187" t="s">
         <v>750</v>
       </c>
-      <c r="B187" t="s">
+      <c r="D187" t="s">
+        <v>401</v>
+      </c>
+      <c r="F187" t="s">
+        <v>402</v>
+      </c>
+      <c r="G187" t="s">
+        <v>403</v>
+      </c>
+      <c r="H187" t="s">
+        <v>518</v>
+      </c>
+      <c r="I187" t="s">
         <v>751</v>
       </c>
-      <c r="C187" t="s">
+      <c r="J187" t="s">
         <v>752</v>
-      </c>
-      <c r="D187" t="s">
-        <v>403</v>
-      </c>
-      <c r="F187" t="s">
-        <v>404</v>
-      </c>
-      <c r="G187" t="s">
-        <v>405</v>
-      </c>
-      <c r="H187" t="s">
-        <v>520</v>
-      </c>
-      <c r="I187" t="s">
-        <v>753</v>
-      </c>
-      <c r="J187" t="s">
-        <v>754</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>29</v>
@@ -9483,13 +9680,13 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>753</v>
+      </c>
+      <c r="B188" t="s">
+        <v>754</v>
+      </c>
+      <c r="C188" t="s">
         <v>755</v>
-      </c>
-      <c r="B188" t="s">
-        <v>756</v>
-      </c>
-      <c r="C188" t="s">
-        <v>757</v>
       </c>
       <c r="D188" t="s">
         <v>33</v>
@@ -9515,13 +9712,13 @@
     </row>
     <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>756</v>
+      </c>
+      <c r="B189" t="s">
+        <v>757</v>
+      </c>
+      <c r="C189" t="s">
         <v>758</v>
-      </c>
-      <c r="B189" t="s">
-        <v>759</v>
-      </c>
-      <c r="C189" t="s">
-        <v>760</v>
       </c>
       <c r="F189" t="s">
         <v>20</v>
@@ -9530,13 +9727,13 @@
         <v>21</v>
       </c>
       <c r="H189" t="s">
+        <v>210</v>
+      </c>
+      <c r="I189" t="s">
+        <v>211</v>
+      </c>
+      <c r="J189" t="s">
         <v>212</v>
-      </c>
-      <c r="I189" t="s">
-        <v>213</v>
-      </c>
-      <c r="J189" t="s">
-        <v>214</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>29</v>
@@ -9546,13 +9743,13 @@
     </row>
     <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>759</v>
+      </c>
+      <c r="B190" t="s">
+        <v>760</v>
+      </c>
+      <c r="C190" t="s">
         <v>761</v>
-      </c>
-      <c r="B190" t="s">
-        <v>762</v>
-      </c>
-      <c r="C190" t="s">
-        <v>763</v>
       </c>
       <c r="F190" t="s">
         <v>20</v>
@@ -9561,13 +9758,13 @@
         <v>21</v>
       </c>
       <c r="H190" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I190" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J190" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>29</v>
@@ -9577,28 +9774,28 @@
     </row>
     <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>763</v>
+      </c>
+      <c r="B191" t="s">
+        <v>764</v>
+      </c>
+      <c r="C191" t="s">
         <v>765</v>
-      </c>
-      <c r="B191" t="s">
-        <v>766</v>
-      </c>
-      <c r="C191" t="s">
-        <v>767</v>
       </c>
       <c r="F191" t="s">
         <v>20</v>
       </c>
       <c r="G191" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H191" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I191" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J191" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>29</v>
@@ -9608,28 +9805,28 @@
     </row>
     <row r="192" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>767</v>
+      </c>
+      <c r="B192" t="s">
+        <v>768</v>
+      </c>
+      <c r="C192" t="s">
         <v>769</v>
-      </c>
-      <c r="B192" t="s">
-        <v>770</v>
-      </c>
-      <c r="C192" t="s">
-        <v>771</v>
       </c>
       <c r="F192" t="s">
         <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H192" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I192" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>25</v>
@@ -9639,28 +9836,28 @@
     </row>
     <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>770</v>
+      </c>
+      <c r="B193" t="s">
+        <v>771</v>
+      </c>
+      <c r="C193" t="s">
         <v>772</v>
-      </c>
-      <c r="B193" t="s">
-        <v>773</v>
-      </c>
-      <c r="C193" t="s">
-        <v>774</v>
       </c>
       <c r="F193" t="s">
         <v>20</v>
       </c>
       <c r="G193" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H193" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I193" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J193" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K193" s="1" t="s">
         <v>29</v>
@@ -9670,28 +9867,28 @@
     </row>
     <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>775</v>
+      </c>
+      <c r="B194" t="s">
+        <v>776</v>
+      </c>
+      <c r="C194" t="s">
         <v>777</v>
-      </c>
-      <c r="B194" t="s">
-        <v>778</v>
-      </c>
-      <c r="C194" t="s">
-        <v>779</v>
       </c>
       <c r="F194" t="s">
         <v>20</v>
       </c>
       <c r="G194" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H194" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I194" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J194" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>29</v>
@@ -9701,31 +9898,31 @@
     </row>
     <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>778</v>
+      </c>
+      <c r="B195" t="s">
+        <v>779</v>
+      </c>
+      <c r="C195" t="s">
         <v>780</v>
       </c>
-      <c r="B195" t="s">
-        <v>781</v>
-      </c>
-      <c r="C195" t="s">
-        <v>782</v>
-      </c>
       <c r="D195" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F195" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G195" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H195" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I195" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J195" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>29</v>
@@ -9735,31 +9932,31 @@
     </row>
     <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>781</v>
+      </c>
+      <c r="B196" t="s">
+        <v>782</v>
+      </c>
+      <c r="C196" t="s">
         <v>783</v>
       </c>
-      <c r="B196" t="s">
-        <v>784</v>
-      </c>
-      <c r="C196" t="s">
-        <v>785</v>
-      </c>
       <c r="D196" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F196" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G196" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H196" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I196" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J196" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>29</v>
@@ -9769,28 +9966,28 @@
     </row>
     <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>784</v>
+      </c>
+      <c r="B197" t="s">
+        <v>785</v>
+      </c>
+      <c r="C197" t="s">
         <v>786</v>
       </c>
-      <c r="B197" t="s">
-        <v>787</v>
-      </c>
-      <c r="C197" t="s">
-        <v>788</v>
-      </c>
       <c r="F197" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G197" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H197" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I197" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J197" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>29</v>
@@ -9800,31 +9997,31 @@
     </row>
     <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>787</v>
+      </c>
+      <c r="B198" t="s">
+        <v>788</v>
+      </c>
+      <c r="C198" t="s">
         <v>789</v>
       </c>
-      <c r="B198" t="s">
+      <c r="D198" t="s">
+        <v>401</v>
+      </c>
+      <c r="F198" t="s">
+        <v>402</v>
+      </c>
+      <c r="G198" t="s">
+        <v>403</v>
+      </c>
+      <c r="H198" t="s">
+        <v>432</v>
+      </c>
+      <c r="I198" t="s">
+        <v>490</v>
+      </c>
+      <c r="J198" t="s">
         <v>790</v>
-      </c>
-      <c r="C198" t="s">
-        <v>791</v>
-      </c>
-      <c r="D198" t="s">
-        <v>403</v>
-      </c>
-      <c r="F198" t="s">
-        <v>404</v>
-      </c>
-      <c r="G198" t="s">
-        <v>405</v>
-      </c>
-      <c r="H198" t="s">
-        <v>434</v>
-      </c>
-      <c r="I198" t="s">
-        <v>492</v>
-      </c>
-      <c r="J198" t="s">
-        <v>792</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>29</v>
@@ -9834,62 +10031,62 @@
     </row>
     <row r="199" spans="1:16" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>791</v>
+      </c>
+      <c r="B199" t="s">
+        <v>792</v>
+      </c>
+      <c r="C199" t="s">
         <v>793</v>
       </c>
-      <c r="B199" t="s">
-        <v>794</v>
-      </c>
-      <c r="C199" t="s">
-        <v>795</v>
-      </c>
       <c r="F199" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G199" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H199" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I199" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J199" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N199"/>
       <c r="P199"/>
     </row>
     <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>794</v>
+      </c>
+      <c r="B200" t="s">
+        <v>795</v>
+      </c>
+      <c r="C200" t="s">
         <v>796</v>
       </c>
-      <c r="B200" t="s">
-        <v>797</v>
-      </c>
-      <c r="C200" t="s">
-        <v>798</v>
-      </c>
       <c r="D200" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F200" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G200" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H200" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I200" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J200" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K200" s="1" t="s">
         <v>29</v>
@@ -9899,28 +10096,28 @@
     </row>
     <row r="201" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>797</v>
+      </c>
+      <c r="B201" t="s">
+        <v>798</v>
+      </c>
+      <c r="C201" t="s">
         <v>799</v>
       </c>
-      <c r="B201" t="s">
-        <v>800</v>
-      </c>
-      <c r="C201" t="s">
-        <v>801</v>
-      </c>
       <c r="F201" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G201" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H201" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I201" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J201" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K201" s="1" t="s">
         <v>25</v>
@@ -9930,31 +10127,31 @@
     </row>
     <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>800</v>
+      </c>
+      <c r="B202" t="s">
+        <v>801</v>
+      </c>
+      <c r="C202" t="s">
         <v>802</v>
       </c>
-      <c r="B202" t="s">
-        <v>803</v>
-      </c>
-      <c r="C202" t="s">
-        <v>804</v>
-      </c>
       <c r="D202" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F202" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G202" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H202" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I202" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J202" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>29</v>
@@ -9964,31 +10161,31 @@
     </row>
     <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>803</v>
+      </c>
+      <c r="B203" t="s">
+        <v>804</v>
+      </c>
+      <c r="C203" t="s">
         <v>805</v>
       </c>
-      <c r="B203" t="s">
-        <v>806</v>
-      </c>
-      <c r="C203" t="s">
-        <v>807</v>
-      </c>
       <c r="D203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G203" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H203" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I203" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J203" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K203" s="1" t="s">
         <v>29</v>
@@ -9998,28 +10195,28 @@
     </row>
     <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>806</v>
+      </c>
+      <c r="B204" t="s">
+        <v>807</v>
+      </c>
+      <c r="C204" t="s">
         <v>808</v>
       </c>
-      <c r="B204" t="s">
-        <v>809</v>
-      </c>
-      <c r="C204" t="s">
-        <v>810</v>
-      </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H204" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I204" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J204" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>29</v>
@@ -10029,31 +10226,31 @@
     </row>
     <row r="205" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>809</v>
+      </c>
+      <c r="B205" t="s">
+        <v>810</v>
+      </c>
+      <c r="C205" t="s">
         <v>811</v>
       </c>
-      <c r="B205" t="s">
+      <c r="D205" t="s">
+        <v>401</v>
+      </c>
+      <c r="F205" t="s">
+        <v>402</v>
+      </c>
+      <c r="G205" t="s">
+        <v>403</v>
+      </c>
+      <c r="H205" t="s">
+        <v>518</v>
+      </c>
+      <c r="I205" t="s">
+        <v>553</v>
+      </c>
+      <c r="J205" t="s">
         <v>812</v>
-      </c>
-      <c r="C205" t="s">
-        <v>813</v>
-      </c>
-      <c r="D205" t="s">
-        <v>403</v>
-      </c>
-      <c r="F205" t="s">
-        <v>404</v>
-      </c>
-      <c r="G205" t="s">
-        <v>405</v>
-      </c>
-      <c r="H205" t="s">
-        <v>520</v>
-      </c>
-      <c r="I205" t="s">
-        <v>555</v>
-      </c>
-      <c r="J205" t="s">
-        <v>814</v>
       </c>
       <c r="K205" s="1" t="s">
         <v>25</v>
@@ -10063,28 +10260,28 @@
     </row>
     <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>813</v>
+      </c>
+      <c r="B206" t="s">
+        <v>814</v>
+      </c>
+      <c r="C206" t="s">
         <v>815</v>
       </c>
-      <c r="B206" t="s">
+      <c r="F206" t="s">
+        <v>402</v>
+      </c>
+      <c r="G206" t="s">
+        <v>403</v>
+      </c>
+      <c r="H206" t="s">
+        <v>518</v>
+      </c>
+      <c r="I206" t="s">
+        <v>644</v>
+      </c>
+      <c r="J206" t="s">
         <v>816</v>
-      </c>
-      <c r="C206" t="s">
-        <v>817</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
-      </c>
-      <c r="G206" t="s">
-        <v>405</v>
-      </c>
-      <c r="H206" t="s">
-        <v>520</v>
-      </c>
-      <c r="I206" t="s">
-        <v>646</v>
-      </c>
-      <c r="J206" t="s">
-        <v>818</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>29</v>
@@ -10094,28 +10291,28 @@
     </row>
     <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>817</v>
+      </c>
+      <c r="B207" t="s">
+        <v>818</v>
+      </c>
+      <c r="C207" t="s">
         <v>819</v>
       </c>
-      <c r="B207" t="s">
-        <v>820</v>
-      </c>
-      <c r="C207" t="s">
-        <v>821</v>
-      </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H207" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I207" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J207" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>29</v>
@@ -10125,28 +10322,28 @@
     </row>
     <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>820</v>
+      </c>
+      <c r="B208" t="s">
+        <v>821</v>
+      </c>
+      <c r="C208" t="s">
         <v>822</v>
       </c>
-      <c r="B208" t="s">
+      <c r="F208" t="s">
+        <v>402</v>
+      </c>
+      <c r="G208" t="s">
+        <v>403</v>
+      </c>
+      <c r="H208" t="s">
+        <v>518</v>
+      </c>
+      <c r="I208" t="s">
+        <v>548</v>
+      </c>
+      <c r="J208" t="s">
         <v>823</v>
-      </c>
-      <c r="C208" t="s">
-        <v>824</v>
-      </c>
-      <c r="F208" t="s">
-        <v>404</v>
-      </c>
-      <c r="G208" t="s">
-        <v>405</v>
-      </c>
-      <c r="H208" t="s">
-        <v>520</v>
-      </c>
-      <c r="I208" t="s">
-        <v>550</v>
-      </c>
-      <c r="J208" t="s">
-        <v>825</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>29</v>
@@ -10156,28 +10353,28 @@
     </row>
     <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>824</v>
+      </c>
+      <c r="B209" t="s">
+        <v>825</v>
+      </c>
+      <c r="C209" t="s">
         <v>826</v>
       </c>
-      <c r="B209" t="s">
-        <v>827</v>
-      </c>
-      <c r="C209" t="s">
-        <v>828</v>
-      </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G209" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H209" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I209" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J209" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="K209" s="1" t="s">
         <v>29</v>
@@ -10187,31 +10384,31 @@
     </row>
     <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>827</v>
+      </c>
+      <c r="B210" t="s">
+        <v>828</v>
+      </c>
+      <c r="C210" t="s">
         <v>829</v>
       </c>
-      <c r="B210" t="s">
+      <c r="D210" t="s">
+        <v>401</v>
+      </c>
+      <c r="F210" t="s">
+        <v>402</v>
+      </c>
+      <c r="G210" t="s">
+        <v>403</v>
+      </c>
+      <c r="H210" t="s">
+        <v>518</v>
+      </c>
+      <c r="I210" t="s">
         <v>830</v>
       </c>
-      <c r="C210" t="s">
+      <c r="J210" t="s">
         <v>831</v>
-      </c>
-      <c r="D210" t="s">
-        <v>403</v>
-      </c>
-      <c r="F210" t="s">
-        <v>404</v>
-      </c>
-      <c r="G210" t="s">
-        <v>405</v>
-      </c>
-      <c r="H210" t="s">
-        <v>520</v>
-      </c>
-      <c r="I210" t="s">
-        <v>832</v>
-      </c>
-      <c r="J210" t="s">
-        <v>833</v>
       </c>
       <c r="K210" s="1" t="s">
         <v>29</v>
@@ -10221,31 +10418,31 @@
     </row>
     <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>832</v>
+      </c>
+      <c r="B211" t="s">
+        <v>833</v>
+      </c>
+      <c r="C211" t="s">
         <v>834</v>
       </c>
-      <c r="B211" t="s">
-        <v>835</v>
-      </c>
-      <c r="C211" t="s">
-        <v>836</v>
-      </c>
       <c r="D211" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G211" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H211" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I211" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J211" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>29</v>
@@ -10255,28 +10452,28 @@
     </row>
     <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>835</v>
+      </c>
+      <c r="B212" t="s">
+        <v>836</v>
+      </c>
+      <c r="C212" t="s">
         <v>837</v>
       </c>
-      <c r="B212" t="s">
-        <v>838</v>
-      </c>
-      <c r="C212" t="s">
-        <v>839</v>
-      </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G212" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H212" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I212" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J212" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>29</v>
@@ -10286,31 +10483,31 @@
     </row>
     <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>838</v>
+      </c>
+      <c r="B213" t="s">
+        <v>839</v>
+      </c>
+      <c r="C213" t="s">
         <v>840</v>
       </c>
-      <c r="B213" t="s">
-        <v>841</v>
-      </c>
-      <c r="C213" t="s">
-        <v>842</v>
-      </c>
       <c r="D213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G213" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H213" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I213" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J213" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>29</v>
@@ -10320,31 +10517,31 @@
     </row>
     <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>841</v>
+      </c>
+      <c r="B214" t="s">
+        <v>842</v>
+      </c>
+      <c r="C214" t="s">
         <v>843</v>
       </c>
-      <c r="B214" t="s">
-        <v>844</v>
-      </c>
-      <c r="C214" t="s">
-        <v>845</v>
-      </c>
       <c r="D214" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G214" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H214" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I214" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J214" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>29</v>
@@ -10354,31 +10551,31 @@
     </row>
     <row r="215" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>844</v>
+      </c>
+      <c r="B215" t="s">
+        <v>845</v>
+      </c>
+      <c r="C215" t="s">
         <v>846</v>
       </c>
-      <c r="B215" t="s">
+      <c r="D215" t="s">
+        <v>401</v>
+      </c>
+      <c r="F215" t="s">
+        <v>402</v>
+      </c>
+      <c r="G215" t="s">
+        <v>403</v>
+      </c>
+      <c r="H215" t="s">
+        <v>518</v>
+      </c>
+      <c r="I215" t="s">
+        <v>553</v>
+      </c>
+      <c r="J215" t="s">
         <v>847</v>
-      </c>
-      <c r="C215" t="s">
-        <v>848</v>
-      </c>
-      <c r="D215" t="s">
-        <v>403</v>
-      </c>
-      <c r="F215" t="s">
-        <v>404</v>
-      </c>
-      <c r="G215" t="s">
-        <v>405</v>
-      </c>
-      <c r="H215" t="s">
-        <v>520</v>
-      </c>
-      <c r="I215" t="s">
-        <v>555</v>
-      </c>
-      <c r="J215" t="s">
-        <v>849</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>25</v>
@@ -10388,137 +10585,137 @@
     </row>
     <row r="216" spans="1:16" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>848</v>
+      </c>
+      <c r="B216" t="s">
+        <v>849</v>
+      </c>
+      <c r="C216" t="s">
         <v>850</v>
-      </c>
-      <c r="B216" t="s">
-        <v>851</v>
-      </c>
-      <c r="C216" t="s">
-        <v>852</v>
       </c>
       <c r="F216" t="s">
         <v>20</v>
       </c>
       <c r="G216" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H216" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I216" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J216" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N216"/>
       <c r="P216"/>
     </row>
     <row r="217" spans="1:16" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>851</v>
+      </c>
+      <c r="B217" t="s">
+        <v>852</v>
+      </c>
+      <c r="C217" t="s">
         <v>853</v>
-      </c>
-      <c r="B217" t="s">
-        <v>854</v>
-      </c>
-      <c r="C217" t="s">
-        <v>855</v>
       </c>
       <c r="F217" t="s">
         <v>20</v>
       </c>
       <c r="G217" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H217" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I217" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J217" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N217"/>
       <c r="P217"/>
     </row>
     <row r="218" spans="1:16" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B218" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C218" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F218" t="s">
         <v>20</v>
       </c>
       <c r="G218" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H218" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I218" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J218" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N218"/>
       <c r="P218"/>
     </row>
     <row r="219" spans="1:16" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B219" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C219" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F219" t="s">
         <v>20</v>
       </c>
       <c r="G219" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H219" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I219" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J219" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N219"/>
       <c r="P219"/>
     </row>
     <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>858</v>
+      </c>
+      <c r="B220" t="s">
+        <v>859</v>
+      </c>
+      <c r="C220" t="s">
         <v>860</v>
-      </c>
-      <c r="B220" t="s">
-        <v>861</v>
-      </c>
-      <c r="C220" t="s">
-        <v>862</v>
       </c>
       <c r="F220" t="s">
         <v>20</v>
@@ -10527,29 +10724,29 @@
         <v>21</v>
       </c>
       <c r="H220" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I220" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J220" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N220"/>
       <c r="P220"/>
     </row>
     <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B221" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C221" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F221" t="s">
         <v>20</v>
@@ -10558,44 +10755,44 @@
         <v>21</v>
       </c>
       <c r="H221" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I221" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J221" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N221"/>
       <c r="P221"/>
     </row>
     <row r="222" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>865</v>
+      </c>
+      <c r="B222" t="s">
+        <v>866</v>
+      </c>
+      <c r="C222" t="s">
         <v>867</v>
-      </c>
-      <c r="B222" t="s">
-        <v>868</v>
-      </c>
-      <c r="C222" t="s">
-        <v>869</v>
       </c>
       <c r="F222" t="s">
         <v>20</v>
       </c>
       <c r="G222" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H222" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I222" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J222" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>25</v>
@@ -10605,28 +10802,28 @@
     </row>
     <row r="223" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B223" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C223" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F223" t="s">
         <v>20</v>
       </c>
       <c r="G223" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H223" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I223" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J223" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K223" s="1" t="s">
         <v>25</v>
@@ -10724,7 +10921,7 @@
         <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10732,21 +10929,21 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C5" t="s">
         <v>875</v>
-      </c>
-      <c r="B5" t="s">
-        <v>876</v>
-      </c>
-      <c r="C5" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/output/manual_range_edge_binning.xlsx
+++ b/output/manual_range_edge_binning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc.sharepoint.com/sites/fs-cio-mpsg/SCC Library/03_Nebraska NFG/Species Evaluations/R_NNFG_SO/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1850" documentId="11_70DE90B082F123B351BBEF595328C939760EC9C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04BEFA66-B841-4C70-84B9-BE9CE0DB60FB}"/>
+  <xr:revisionPtr revIDLastSave="1858" documentId="11_70DE90B082F123B351BBEF595328C939760EC9C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1BB6D9-D40C-4523-8D91-590C010E894F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bins" sheetId="1" r:id="rId1"/>
@@ -3007,7 +3007,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3524,7 +3524,10 @@
   <autoFilter ref="A1:S230" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
     <filterColumn colId="2">
       <filters>
+        <filter val="Autumnal Water-starwort"/>
+        <filter val="Graham's Rockcress"/>
         <filter val="Pearly Everlasting"/>
+        <filter val="Vernal Water-starwort"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3835,18 +3838,18 @@
   <dimension ref="A1:S230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K112" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="R163" sqref="R163"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D125" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="I239" sqref="I239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="4" customWidth="1"/>
@@ -3865,7 +3868,7 @@
     <col min="20" max="16384" width="11.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" hidden="1">
+    <row r="2" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" hidden="1">
+    <row r="3" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30" hidden="1">
+    <row r="4" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -4067,7 +4070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="75" hidden="1">
+    <row r="5" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="45" hidden="1">
+    <row r="6" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -4159,7 +4162,7 @@
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19" ht="60" hidden="1">
+    <row r="7" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" hidden="1">
+    <row r="8" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>72</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" hidden="1">
+    <row r="9" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" hidden="1">
+    <row r="10" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="45" hidden="1">
+    <row r="11" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="45" hidden="1">
+    <row r="12" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="45" hidden="1">
+    <row r="13" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>98</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" hidden="1">
+    <row r="14" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>104</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="45" hidden="1">
+    <row r="15" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>112</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="60" hidden="1">
+    <row r="16" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="30" hidden="1">
+    <row r="17" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>120</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="45" hidden="1">
+    <row r="18" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>125</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="45" hidden="1">
+    <row r="19" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>130</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="45" hidden="1">
+    <row r="20" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>134</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="45" hidden="1">
+    <row r="21" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>138</v>
       </c>
@@ -4927,7 +4930,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="30" hidden="1">
+    <row r="22" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>144</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="30" hidden="1">
+    <row r="23" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>149</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="60" hidden="1">
+    <row r="24" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>153</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="30" hidden="1">
+    <row r="25" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>160</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="30" hidden="1">
+    <row r="26" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>167</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="60" hidden="1">
+    <row r="27" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>171</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="60" hidden="1">
+    <row r="28" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>176</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="70.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:18" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>180</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="45" hidden="1">
+    <row r="30" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>184</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" hidden="1">
+    <row r="31" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>188</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="45" hidden="1">
+    <row r="32" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>192</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="30" hidden="1">
+    <row r="33" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>199</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="45" hidden="1">
+    <row r="34" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>203</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45" hidden="1">
+    <row r="35" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="45" hidden="1">
+    <row r="36" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>211</v>
       </c>
@@ -5689,7 +5692,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="45" hidden="1">
+    <row r="37" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>216</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="45" hidden="1">
+    <row r="38" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>219</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="45" hidden="1">
+    <row r="39" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>224</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="61.5" hidden="1" customHeight="1">
+    <row r="40" spans="1:18" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>228</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="37.5" hidden="1" customHeight="1">
+    <row r="41" spans="1:18" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>232</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45" hidden="1">
+    <row r="42" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>236</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="60" hidden="1" customHeight="1">
+    <row r="43" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>240</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="45" hidden="1">
+    <row r="44" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>244</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="30" hidden="1">
+    <row r="45" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>249</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="30" hidden="1">
+    <row r="46" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>256</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="30" hidden="1">
+    <row r="47" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>262</v>
       </c>
@@ -6245,7 +6248,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="60" hidden="1">
+    <row r="48" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>266</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="30" hidden="1">
+    <row r="49" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>270</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="45" hidden="1">
+    <row r="50" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>273</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="60" hidden="1">
+    <row r="51" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>279</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="45" hidden="1">
+    <row r="52" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>283</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45" hidden="1">
+    <row r="53" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>287</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="30" hidden="1">
+    <row r="54" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>291</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="30" hidden="1">
+    <row r="55" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>295</v>
       </c>
@@ -6599,7 +6602,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="30" hidden="1">
+    <row r="56" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>301</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="30" hidden="1">
+    <row r="57" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>306</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="30" hidden="1">
+    <row r="58" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>310</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="45" hidden="1">
+    <row r="59" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>315</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="30" hidden="1">
+    <row r="60" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>321</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="60" hidden="1">
+    <row r="61" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>326</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="45" hidden="1">
+    <row r="62" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>332</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="60" hidden="1">
+    <row r="63" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>339</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="45" hidden="1">
+    <row r="64" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>345</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="45" hidden="1">
+    <row r="65" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>349</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="30" hidden="1">
+    <row r="66" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>353</v>
       </c>
@@ -7070,7 +7073,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="45" hidden="1">
+    <row r="67" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>357</v>
       </c>
@@ -7110,7 +7113,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="45" hidden="1">
+    <row r="68" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>360</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="45" hidden="1">
+    <row r="69" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>367</v>
       </c>
@@ -7188,7 +7191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="45" hidden="1">
+    <row r="70" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>374</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="45" hidden="1">
+    <row r="71" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>377</v>
       </c>
@@ -7266,7 +7269,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="45" hidden="1">
+    <row r="72" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>380</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="45" hidden="1">
+    <row r="73" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>384</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="45" hidden="1">
+    <row r="74" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>390</v>
       </c>
@@ -7383,7 +7386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="45" hidden="1">
+    <row r="75" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>393</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="45" hidden="1">
+    <row r="76" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>397</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="45" hidden="1">
+    <row r="77" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>400</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="45" hidden="1">
+    <row r="78" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>405</v>
       </c>
@@ -7542,7 +7545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="45" hidden="1">
+    <row r="79" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>409</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="45" hidden="1">
+    <row r="80" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>413</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="45" hidden="1">
+    <row r="81" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>416</v>
       </c>
@@ -7659,7 +7662,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="45" hidden="1">
+    <row r="82" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>419</v>
       </c>
@@ -7698,7 +7701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="45" hidden="1">
+    <row r="83" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>422</v>
       </c>
@@ -7737,7 +7740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="45" hidden="1">
+    <row r="84" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>425</v>
       </c>
@@ -7776,7 +7779,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="45" hidden="1">
+    <row r="85" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>428</v>
       </c>
@@ -7815,7 +7818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="45" hidden="1">
+    <row r="86" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>432</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="45" hidden="1">
+    <row r="87" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>436</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="45" hidden="1">
+    <row r="88" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>440</v>
       </c>
@@ -7932,7 +7935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="45" hidden="1">
+    <row r="89" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>444</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="45" hidden="1">
+    <row r="90" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>447</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="45" hidden="1">
+    <row r="91" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>450</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="78.75" hidden="1" customHeight="1">
+    <row r="92" spans="1:18" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>455</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="30" hidden="1">
+    <row r="93" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>460</v>
       </c>
@@ -8141,7 +8144,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="60" hidden="1">
+    <row r="94" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>470</v>
       </c>
@@ -8189,7 +8192,7 @@
       </c>
       <c r="Q94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="30" hidden="1">
+    <row r="95" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>475</v>
       </c>
@@ -8239,7 +8242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="60" hidden="1">
+    <row r="96" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>480</v>
       </c>
@@ -8287,7 +8290,7 @@
       </c>
       <c r="Q96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="30" hidden="1">
+    <row r="97" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>483</v>
       </c>
@@ -8337,7 +8340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="30" hidden="1">
+    <row r="98" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>489</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="60" hidden="1">
+    <row r="99" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>492</v>
       </c>
@@ -8440,7 +8443,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="45" hidden="1">
+    <row r="100" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>499</v>
       </c>
@@ -8480,7 +8483,7 @@
       </c>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="30" hidden="1">
+    <row r="101" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>504</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="45" hidden="1">
+    <row r="102" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>507</v>
       </c>
@@ -8570,7 +8573,7 @@
       </c>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="30" hidden="1">
+    <row r="103" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>511</v>
       </c>
@@ -8620,7 +8623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="30" hidden="1">
+    <row r="104" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>514</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="30" hidden="1">
+    <row r="105" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>517</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="45" hidden="1">
+    <row r="106" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>521</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="45" hidden="1">
+    <row r="107" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>525</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="134.25" hidden="1" customHeight="1">
+    <row r="108" spans="1:18" ht="134.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>529</v>
       </c>
@@ -8866,7 +8869,7 @@
       </c>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" ht="81.75" hidden="1" customHeight="1">
+    <row r="109" spans="1:18" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>532</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="60" hidden="1">
+    <row r="110" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>535</v>
       </c>
@@ -8969,7 +8972,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="60" hidden="1" customHeight="1">
+    <row r="111" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>539</v>
       </c>
@@ -9022,7 +9025,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="45" hidden="1">
+    <row r="112" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>545</v>
       </c>
@@ -9075,7 +9078,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="45" hidden="1">
+    <row r="113" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>549</v>
       </c>
@@ -9114,7 +9117,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="30" hidden="1">
+    <row r="114" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>553</v>
       </c>
@@ -9167,7 +9170,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="30" hidden="1">
+    <row r="115" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>557</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="84" hidden="1" customHeight="1">
+    <row r="116" spans="1:18" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>563</v>
       </c>
@@ -9273,7 +9276,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="45" hidden="1">
+    <row r="117" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>567</v>
       </c>
@@ -9326,7 +9329,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="45" hidden="1">
+    <row r="118" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>571</v>
       </c>
@@ -9379,7 +9382,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="30" hidden="1">
+    <row r="119" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>574</v>
       </c>
@@ -9432,7 +9435,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="30" hidden="1">
+    <row r="120" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>578</v>
       </c>
@@ -9482,7 +9485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="30" hidden="1">
+    <row r="121" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>581</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="75" hidden="1">
+    <row r="122" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>586</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="30" hidden="1">
+    <row r="123" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>591</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="30.75" hidden="1">
+    <row r="124" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>597</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="30">
+    <row r="125" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>603</v>
       </c>
@@ -9741,7 +9744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="96.75" hidden="1" customHeight="1">
+    <row r="126" spans="1:18" ht="96.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>608</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="30" hidden="1">
+    <row r="127" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>612</v>
       </c>
@@ -9847,7 +9850,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="30" hidden="1">
+    <row r="128" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>618</v>
       </c>
@@ -9897,7 +9900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="45" hidden="1">
+    <row r="129" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>621</v>
       </c>
@@ -9937,7 +9940,7 @@
       </c>
       <c r="R129" s="4"/>
     </row>
-    <row r="130" spans="1:18" ht="30" hidden="1">
+    <row r="130" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>624</v>
       </c>
@@ -9987,7 +9990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="30" hidden="1">
+    <row r="131" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>629</v>
       </c>
@@ -10037,7 +10040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="45" hidden="1">
+    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>634</v>
       </c>
@@ -10077,7 +10080,7 @@
       </c>
       <c r="R132" s="4"/>
     </row>
-    <row r="133" spans="1:18" ht="30" hidden="1">
+    <row r="133" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>639</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="30" hidden="1">
+    <row r="134" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>643</v>
       </c>
@@ -10177,7 +10180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="30" hidden="1">
+    <row r="135" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>646</v>
       </c>
@@ -10227,7 +10230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="45" hidden="1">
+    <row r="136" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>649</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="45" hidden="1">
+    <row r="137" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>655</v>
       </c>
@@ -10320,7 +10323,7 @@
       </c>
       <c r="R137" s="4"/>
     </row>
-    <row r="138" spans="1:18" ht="30" hidden="1">
+    <row r="138" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>658</v>
       </c>
@@ -10373,7 +10376,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="30" hidden="1">
+    <row r="139" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>663</v>
       </c>
@@ -10423,7 +10426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="45" hidden="1">
+    <row r="140" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>668</v>
       </c>
@@ -10463,7 +10466,7 @@
       </c>
       <c r="R140" s="4"/>
     </row>
-    <row r="141" spans="1:18" ht="30" hidden="1">
+    <row r="141" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>671</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="30" hidden="1">
+    <row r="142" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>674</v>
       </c>
@@ -10563,7 +10566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="30" hidden="1">
+    <row r="143" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>677</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="30" hidden="1">
+    <row r="144" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>681</v>
       </c>
@@ -10666,7 +10669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="89.25" hidden="1" customHeight="1">
+    <row r="145" spans="1:18" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>684</v>
       </c>
@@ -10719,7 +10722,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="45" hidden="1">
+    <row r="146" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>689</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="75" hidden="1">
+    <row r="147" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>693</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="30" hidden="1">
+    <row r="148" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>698</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="30" hidden="1">
+    <row r="149" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>701</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="30" hidden="1">
+    <row r="150" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>704</v>
       </c>
@@ -10975,7 +10978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="30" hidden="1">
+    <row r="151" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>707</v>
       </c>
@@ -11028,7 +11031,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="45" hidden="1">
+    <row r="152" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>711</v>
       </c>
@@ -11068,7 +11071,7 @@
       </c>
       <c r="R152" s="4"/>
     </row>
-    <row r="153" spans="1:18" ht="30" hidden="1">
+    <row r="153" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>716</v>
       </c>
@@ -11121,7 +11124,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="45" hidden="1">
+    <row r="154" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>719</v>
       </c>
@@ -11161,7 +11164,7 @@
       </c>
       <c r="R154" s="4"/>
     </row>
-    <row r="155" spans="1:18" ht="45" hidden="1">
+    <row r="155" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>723</v>
       </c>
@@ -11214,7 +11217,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="30" hidden="1">
+    <row r="156" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>729</v>
       </c>
@@ -11267,7 +11270,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="30" hidden="1">
+    <row r="157" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>735</v>
       </c>
@@ -11320,7 +11323,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="60" hidden="1">
+    <row r="158" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>739</v>
       </c>
@@ -11370,7 +11373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="30" hidden="1">
+    <row r="159" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>742</v>
       </c>
@@ -11423,7 +11426,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="64.5" hidden="1" customHeight="1">
+    <row r="160" spans="1:18" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>747</v>
       </c>
@@ -11473,7 +11476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="161" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>751</v>
       </c>
@@ -11513,7 +11516,7 @@
       </c>
       <c r="R161" s="4"/>
     </row>
-    <row r="162" spans="1:18" ht="58.5" hidden="1" customHeight="1">
+    <row r="162" spans="1:18" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>754</v>
       </c>
@@ -11553,7 +11556,7 @@
       </c>
       <c r="R162" s="4"/>
     </row>
-    <row r="163" spans="1:18" ht="45" hidden="1">
+    <row r="163" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>758</v>
       </c>
@@ -11606,7 +11609,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="29.25" hidden="1" customHeight="1">
+    <row r="164" spans="1:18" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>762</v>
       </c>
@@ -11646,7 +11649,7 @@
       </c>
       <c r="R164" s="4"/>
     </row>
-    <row r="165" spans="1:18" ht="45" hidden="1" customHeight="1">
+    <row r="165" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>765</v>
       </c>
@@ -11686,7 +11689,7 @@
       </c>
       <c r="R165" s="4"/>
     </row>
-    <row r="166" spans="1:18" ht="60" hidden="1">
+    <row r="166" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>768</v>
       </c>
@@ -11739,7 +11742,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="45" hidden="1">
+    <row r="167" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>772</v>
       </c>
@@ -11792,7 +11795,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="30" hidden="1">
+    <row r="168" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>776</v>
       </c>
@@ -11842,7 +11845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="45" hidden="1">
+    <row r="169" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>779</v>
       </c>
@@ -11882,7 +11885,7 @@
       </c>
       <c r="R169" s="4"/>
     </row>
-    <row r="170" spans="1:18" ht="30" hidden="1">
+    <row r="170" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>782</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="45" hidden="1">
+    <row r="171" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>786</v>
       </c>
@@ -11972,7 +11975,7 @@
       </c>
       <c r="R171" s="4"/>
     </row>
-    <row r="172" spans="1:18" ht="30" hidden="1">
+    <row r="172" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>789</v>
       </c>
@@ -12022,7 +12025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="30" hidden="1">
+    <row r="173" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>794</v>
       </c>
@@ -12072,7 +12075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="45" hidden="1">
+    <row r="174" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>797</v>
       </c>
@@ -12112,7 +12115,7 @@
       </c>
       <c r="R174" s="4"/>
     </row>
-    <row r="175" spans="1:18" ht="31.5" hidden="1" customHeight="1">
+    <row r="175" spans="1:18" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>800</v>
       </c>
@@ -12165,7 +12168,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="30" hidden="1">
+    <row r="176" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>804</v>
       </c>
@@ -12215,7 +12218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="30" hidden="1">
+    <row r="177" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>808</v>
       </c>
@@ -12265,7 +12268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="32.25" hidden="1" customHeight="1">
+    <row r="178" spans="1:18" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>811</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="45" hidden="1">
+    <row r="179" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>815</v>
       </c>
@@ -12355,7 +12358,7 @@
       </c>
       <c r="R179" s="4"/>
     </row>
-    <row r="180" spans="1:18" ht="45" hidden="1">
+    <row r="180" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>819</v>
       </c>
@@ -12395,7 +12398,7 @@
       </c>
       <c r="R180" s="4"/>
     </row>
-    <row r="181" spans="1:18" ht="45" hidden="1">
+    <row r="181" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>822</v>
       </c>
@@ -12435,7 +12438,7 @@
       </c>
       <c r="R181" s="4"/>
     </row>
-    <row r="182" spans="1:18" ht="60" hidden="1">
+    <row r="182" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>825</v>
       </c>
@@ -12488,7 +12491,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="60" hidden="1">
+    <row r="183" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>829</v>
       </c>
@@ -12541,7 +12544,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="39.75" hidden="1" customHeight="1">
+    <row r="184" spans="1:18" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>834</v>
       </c>
@@ -12594,7 +12597,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="30" hidden="1">
+    <row r="185" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>840</v>
       </c>
@@ -12647,7 +12650,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="45" hidden="1">
+    <row r="186" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>845</v>
       </c>
@@ -12700,7 +12703,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="30" hidden="1">
+    <row r="187" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>849</v>
       </c>
@@ -12750,7 +12753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="45" hidden="1">
+    <row r="188" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>854</v>
       </c>
@@ -12803,7 +12806,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="45" hidden="1">
+    <row r="189" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>858</v>
       </c>
@@ -12842,7 +12845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="45" hidden="1">
+    <row r="190" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>861</v>
       </c>
@@ -12881,7 +12884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="45" hidden="1">
+    <row r="191" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>865</v>
       </c>
@@ -12920,7 +12923,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="45" hidden="1">
+    <row r="192" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>869</v>
       </c>
@@ -12959,7 +12962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="45" hidden="1">
+    <row r="193" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>872</v>
       </c>
@@ -12998,7 +13001,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="45" hidden="1">
+    <row r="194" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>877</v>
       </c>
@@ -13037,7 +13040,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="30" hidden="1">
+    <row r="195" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>880</v>
       </c>
@@ -13087,7 +13090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="30" hidden="1">
+    <row r="196" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>883</v>
       </c>
@@ -13140,7 +13143,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="45" hidden="1">
+    <row r="197" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>887</v>
       </c>
@@ -13180,7 +13183,7 @@
       </c>
       <c r="R197" s="4"/>
     </row>
-    <row r="198" spans="1:18" ht="30" hidden="1">
+    <row r="198" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>890</v>
       </c>
@@ -13233,7 +13236,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="45" hidden="1">
+    <row r="199" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>894</v>
       </c>
@@ -13273,7 +13276,7 @@
       </c>
       <c r="R199" s="4"/>
     </row>
-    <row r="200" spans="1:18" ht="30" hidden="1">
+    <row r="200" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>897</v>
       </c>
@@ -13326,7 +13329,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="45" hidden="1">
+    <row r="201" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>901</v>
       </c>
@@ -13366,7 +13369,7 @@
       </c>
       <c r="R201" s="4"/>
     </row>
-    <row r="202" spans="1:18" ht="30" hidden="1">
+    <row r="202" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>904</v>
       </c>
@@ -13419,7 +13422,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="75" hidden="1">
+    <row r="203" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>907</v>
       </c>
@@ -13472,7 +13475,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="45" hidden="1">
+    <row r="204" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>911</v>
       </c>
@@ -13514,7 +13517,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="38.25" hidden="1" customHeight="1">
+    <row r="205" spans="1:18" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>915</v>
       </c>
@@ -13567,7 +13570,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="45" hidden="1">
+    <row r="206" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>920</v>
       </c>
@@ -13607,7 +13610,7 @@
       </c>
       <c r="R206" s="4"/>
     </row>
-    <row r="207" spans="1:18" ht="45" hidden="1">
+    <row r="207" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>924</v>
       </c>
@@ -13647,7 +13650,7 @@
       </c>
       <c r="R207" s="4"/>
     </row>
-    <row r="208" spans="1:18" ht="45" hidden="1">
+    <row r="208" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>927</v>
       </c>
@@ -13687,7 +13690,7 @@
       </c>
       <c r="R208" s="4"/>
     </row>
-    <row r="209" spans="1:18" ht="45" hidden="1">
+    <row r="209" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>931</v>
       </c>
@@ -13727,7 +13730,7 @@
       </c>
       <c r="R209" s="4"/>
     </row>
-    <row r="210" spans="1:18" ht="60" hidden="1">
+    <row r="210" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>934</v>
       </c>
@@ -13780,7 +13783,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="60" hidden="1">
+    <row r="211" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>940</v>
       </c>
@@ -13830,7 +13833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="45" hidden="1">
+    <row r="212" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>943</v>
       </c>
@@ -13870,7 +13873,7 @@
       </c>
       <c r="R212" s="4"/>
     </row>
-    <row r="213" spans="1:18" ht="45" hidden="1">
+    <row r="213" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>946</v>
       </c>
@@ -13923,7 +13926,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="30" hidden="1">
+    <row r="214" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>950</v>
       </c>
@@ -13976,7 +13979,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="58.5" hidden="1" customHeight="1">
+    <row r="215" spans="1:18" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>954</v>
       </c>
@@ -14029,7 +14032,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="45" hidden="1">
+    <row r="216" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>959</v>
       </c>
@@ -14068,7 +14071,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="45" hidden="1">
+    <row r="217" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>962</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="45" hidden="1">
+    <row r="218" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>962</v>
       </c>
@@ -14146,7 +14149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="45" hidden="1">
+    <row r="219" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>962</v>
       </c>
@@ -14185,7 +14188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="45" hidden="1">
+    <row r="220" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>969</v>
       </c>
@@ -14224,7 +14227,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="45" hidden="1">
+    <row r="221" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>969</v>
       </c>
@@ -14263,7 +14266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="45" hidden="1">
+    <row r="222" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>976</v>
       </c>
@@ -14302,7 +14305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="45" hidden="1">
+    <row r="223" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>976</v>
       </c>
@@ -14341,31 +14344,31 @@
         <v>70</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="L224" s="5"/>
       <c r="P224" s="4"/>
     </row>
-    <row r="225" spans="12:16" hidden="1">
+    <row r="225" spans="12:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="L225" s="5"/>
       <c r="P225" s="4"/>
     </row>
-    <row r="226" spans="12:16" hidden="1">
+    <row r="226" spans="12:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="L226" s="5"/>
       <c r="P226" s="4"/>
     </row>
-    <row r="227" spans="12:16" hidden="1">
+    <row r="227" spans="12:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="L227" s="5"/>
       <c r="P227" s="4"/>
     </row>
-    <row r="228" spans="12:16" hidden="1">
+    <row r="228" spans="12:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="L228" s="5"/>
       <c r="P228" s="4"/>
     </row>
-    <row r="229" spans="12:16" hidden="1">
+    <row r="229" spans="12:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="L229" s="5"/>
       <c r="P229" s="4"/>
     </row>
-    <row r="230" spans="12:16" hidden="1">
+    <row r="230" spans="12:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="L230" s="5"/>
       <c r="P230" s="4"/>
     </row>
@@ -14429,7 +14432,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.140625" customWidth="1"/>
     <col min="2" max="2" width="75.140625" customWidth="1"/>
@@ -14437,7 +14440,7 @@
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>981</v>
       </c>
@@ -14451,7 +14454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -14465,7 +14468,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -14479,7 +14482,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="35.25" customHeight="1">
+    <row r="4" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -14493,7 +14496,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.5" customHeight="1">
+    <row r="5" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -14507,7 +14510,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -14521,7 +14524,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -14532,7 +14535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -14540,7 +14543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -14548,17 +14551,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>987</v>
       </c>
@@ -14576,14 +14579,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b355cb27-d675-450b-9661-86e24d269bf4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14816,22 +14817,50 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b355cb27-d675-450b-9661-86e24d269bf4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB942B1-15F9-46BE-9AEF-1CA00CCEC400}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94B4DD76-D2A0-4C43-8485-C3BF2C1BE59B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23EF927E-CA1A-4920-B4B7-C60779EC76E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23EF927E-CA1A-4920-B4B7-C60779EC76E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77"/>
+    <ds:schemaRef ds:uri="b355cb27-d675-450b-9661-86e24d269bf4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94B4DD76-D2A0-4C43-8485-C3BF2C1BE59B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB942B1-15F9-46BE-9AEF-1CA00CCEC400}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b355cb27-d675-450b-9661-86e24d269bf4"/>
+    <ds:schemaRef ds:uri="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>